--- a/ecard-infos.xlsx
+++ b/ecard-infos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection lockWindows="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Class-Infos" sheetId="1" state="visible" r:id="rId2"/>
@@ -723,7 +723,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="1" sqref="1:1 B66"/>
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2125,7 +2125,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="1:1 D27"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B5" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", _xlfn.CONCAT('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
-        <v>ACOSTA, SHAMERAINE </v>
+        <v>ACOSTA, SHAMERAINE</v>
       </c>
       <c r="C5" s="5" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!G13), "", 'Class-Infos'!G13)</f>
@@ -4042,7 +4042,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="1:1 B25"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5958,8 +5958,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="B5" s="5" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", _xlfn.CONCAT('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
-        <v>ACOSTA, SHAMERAINE </v>
+        <v>ACOSTA, SHAMERAINE</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>75</v>
@@ -7520,7 +7520,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8857,7 +8857,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B5" s="5" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", _xlfn.CONCAT('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
-        <v>ACOSTA, SHAMERAINE </v>
+        <v>ACOSTA, SHAMERAINE</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>75</v>
@@ -10157,8 +10157,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ecard-infos.xlsx
+++ b/ecard-infos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Class-Infos" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,8 @@
     <sheet name="4th-Summary-Female" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Values-Male" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Values-Female" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Attendance-Male" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Attendance-Female" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Answer_" vbProcedure="false">#REF!</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="248">
   <si>
     <t xml:space="preserve">Adviser’s Name </t>
   </si>
@@ -670,43 +672,127 @@
     <t xml:space="preserve">HEALTH4</t>
   </si>
   <si>
-    <t xml:space="preserve">FIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUSIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERAGE</t>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schooldays:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul</t>
   </si>
 </sst>
 </file>
@@ -791,7 +877,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -820,6 +906,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +934,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
+      <selection pane="topLeft" activeCell="D64" activeCellId="1" sqref="C2:N24 D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2241,8 +2335,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2305,42 +2399,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C10), "", CONCATENATE('Class-Infos'!C10, ", ", 'Class-Infos'!D10, " ", 'Class-Infos'!E10))</f>
         <v>ABAY ABAY, IAN JAY PARIÑAS</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -2351,42 +2409,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C11), "", CONCATENATE('Class-Infos'!C11, ", ", 'Class-Infos'!D11, " ", 'Class-Infos'!E11))</f>
         <v>ABEJERO, JUSTINE SAGUION</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -2397,42 +2419,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C12), "", CONCATENATE('Class-Infos'!C12, ", ", 'Class-Infos'!D12, " ", 'Class-Infos'!E12))</f>
         <v>ACOSTA, JOHNCARLO ANION</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -2443,42 +2429,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", CONCATENATE('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
         <v>ACOSTA, SHAMERAINE</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -2489,42 +2439,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C14), "", CONCATENATE('Class-Infos'!C14, ", ", 'Class-Infos'!D14, " ", 'Class-Infos'!E14))</f>
         <v>AGUS, ALMOND RAPHAEL JALBAY</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -2535,42 +2449,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
         <v>ALEJANDRO, JEREMY LOPEZ</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -2581,42 +2459,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C16), "", CONCATENATE('Class-Infos'!C16, ", ", 'Class-Infos'!D16, " ", 'Class-Infos'!E16))</f>
         <v>ALEJANDRO, MARK AGBUYA</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -2627,42 +2469,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C17), "", CONCATENATE('Class-Infos'!C17, ", ", 'Class-Infos'!D17, " ", 'Class-Infos'!E17))</f>
         <v>ALETER, JHAYMHARK BOLANOS</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -2673,42 +2479,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C18), "", CONCATENATE('Class-Infos'!C18, ", ", 'Class-Infos'!D18, " ", 'Class-Infos'!E18))</f>
         <v>ALUNDE, LUCKY LUIS YAMSON</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -2719,42 +2489,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C19), "", CONCATENATE('Class-Infos'!C19, ", ", 'Class-Infos'!D19, " ", 'Class-Infos'!E19))</f>
         <v>AMACIO, KHURT RANIEN RANIEN</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -2765,42 +2499,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C20), "", CONCATENATE('Class-Infos'!C20, ", ", 'Class-Infos'!D20, " ", 'Class-Infos'!E20))</f>
         <v>ANDALIS, JIBBY ABUZO</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -2811,42 +2509,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE('Class-Infos'!C21, ", ", 'Class-Infos'!D21, " ", 'Class-Infos'!E21))</f>
         <v>ANDO, PRINCE IVAN REPUYA</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -2857,42 +2519,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
         <v>ARCEO, JOHNKENNETH MACASINAG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -2903,42 +2529,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C23), "", CONCATENATE('Class-Infos'!C23, ", ", 'Class-Infos'!D23, " ", 'Class-Infos'!E23))</f>
         <v>ARESGADO, CHRISTIAN MACKY MANUEL</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -2949,42 +2539,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C24), "", CONCATENATE('Class-Infos'!C24, ", ", 'Class-Infos'!D24, " ", 'Class-Infos'!E24))</f>
         <v>ARROYO, AGA CEAZAR CAPALARAN</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -2995,42 +2549,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C25), "", CONCATENATE('Class-Infos'!C25, ", ", 'Class-Infos'!D25, " ", 'Class-Infos'!E25))</f>
         <v>ASURTO, PRINCE JHADE JEROSO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -3041,42 +2559,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C26), "", CONCATENATE('Class-Infos'!C26, ", ", 'Class-Infos'!D26, " ", 'Class-Infos'!E26))</f>
         <v>AUSTRIA, JAMES BRYAN DIZON</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -3087,42 +2569,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE('Class-Infos'!C27, ", ", 'Class-Infos'!D27, " ", 'Class-Infos'!E27))</f>
         <v>AVILA, JOB OCFEMIA</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -3133,42 +2579,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C28), "", CONCATENATE('Class-Infos'!C28, ", ", 'Class-Infos'!D28, " ", 'Class-Infos'!E28))</f>
         <v>AYON, JUSTINE DELLA</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -3179,42 +2589,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C29), "", CONCATENATE('Class-Infos'!C29, ", ", 'Class-Infos'!D29, " ", 'Class-Infos'!E29))</f>
         <v>AYOP, WESLEY MICHEN BALBUENA</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -3225,42 +2599,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
         <v>AZARCON, JOHN CEDRICK CORTEZ</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -3271,42 +2609,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C31), "", CONCATENATE('Class-Infos'!C31, ", ", 'Class-Infos'!D31, " ", 'Class-Infos'!E31))</f>
         <v>AZORES, JOSHUA SELERIO</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -3316,42 +2618,6 @@
       <c r="B24" s="5" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C32), "", CONCATENATE('Class-Infos'!C32, ", ", 'Class-Infos'!D32, " ", 'Class-Infos'!E32))</f>
         <v>BACLAAN, JOVERT MATA</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,7 +2809,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3606,42 +2872,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C51), "", CONCATENATE('Class-Infos'!C51, ", ", 'Class-Infos'!D51, " ", 'Class-Infos'!E51))</f>
         <v>ABELINDE, LEIRA MAE LEGASPI</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -3652,42 +2882,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C52), "", CONCATENATE('Class-Infos'!C52, ", ", 'Class-Infos'!D52, " ", 'Class-Infos'!E52))</f>
         <v>ABOT, ALISSA KAYL CUSTODIO</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -3698,42 +2892,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C53), "", CONCATENATE('Class-Infos'!C53, ", ", 'Class-Infos'!D53, " ", 'Class-Infos'!E53))</f>
         <v>ADONA, PRINCESS LUMAWIG</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -3744,42 +2902,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C54), "", CONCATENATE('Class-Infos'!C54, ", ", 'Class-Infos'!D54, " ", 'Class-Infos'!E54))</f>
         <v>AGAM, AIZEN CHING</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>96</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -3790,42 +2912,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C55), "", CONCATENATE('Class-Infos'!C55, ", ", 'Class-Infos'!D55, " ", 'Class-Infos'!E55))</f>
         <v>AGUTAYA, DOREEN FAJARDO</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>91</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -3836,42 +2922,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C56), "", CONCATENATE('Class-Infos'!C56, ", ", 'Class-Infos'!D56, " ", 'Class-Infos'!E56))</f>
         <v>ALANANO, XYRIE LOUISE GRATA</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>91</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -3882,42 +2932,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C57), "", CONCATENATE('Class-Infos'!C57, ", ", 'Class-Infos'!D57, " ", 'Class-Infos'!E57))</f>
         <v>ALBAO, PRISCILA JOY APALIT</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -3928,42 +2942,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES FACTOR</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -3974,42 +2952,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -4020,42 +2962,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C60), "", CONCATENATE('Class-Infos'!C60, ", ", 'Class-Infos'!D60, " ", 'Class-Infos'!E60))</f>
         <v>ALCANTARA, ZYLEE ANGELA MATILLANO</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -4066,42 +2972,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C61), "", CONCATENATE('Class-Infos'!C61, ", ", 'Class-Infos'!D61, " ", 'Class-Infos'!E61))</f>
         <v>ALCAZARIN, JILLIANE FLORES</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -4112,42 +2982,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
         <v>AMBULO, PRINCESS ANNE BASILIO</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -4158,42 +2992,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C63), "", CONCATENATE('Class-Infos'!C63, ", ", 'Class-Infos'!D63, " ", 'Class-Infos'!E63))</f>
         <v>APOCAY, MA LORRIENE PATAUEG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -4204,42 +3002,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C64), "", CONCATENATE('Class-Infos'!C64, ", ", 'Class-Infos'!D64, " ", 'Class-Infos'!E64))</f>
         <v>ARANDA, MARY ANGEL PILARCA</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -4250,42 +3012,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
         <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -4296,42 +3022,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C66), "", CONCATENATE('Class-Infos'!C66, ", ", 'Class-Infos'!D66, " ", 'Class-Infos'!E66))</f>
         <v>AREVALO, MA GLAIZA CAMERO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -4342,42 +3032,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C67), "", CONCATENATE('Class-Infos'!C67, ", ", 'Class-Infos'!D67, " ", 'Class-Infos'!E67))</f>
         <v>ATCHOCO, CHRISTINE NARCISO</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -4388,42 +3042,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
         <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>85</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -4434,42 +3052,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C69), "", CONCATENATE('Class-Infos'!C69, ", ", 'Class-Infos'!D69, " ", 'Class-Infos'!E69))</f>
         <v>AXALAN, PRINCESS CUALES</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -4480,42 +3062,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C70), "", CONCATENATE('Class-Infos'!C70, ", ", 'Class-Infos'!D70, " ", 'Class-Infos'!E70))</f>
         <v>AYON, JELIAN ALICAWAY</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -4526,42 +3072,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
         <v>AZUCENAS, JURIELYN VILLAGANAS</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -4572,42 +3082,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C72), "", CONCATENATE('Class-Infos'!C72, ", ", 'Class-Infos'!D72, " ", 'Class-Infos'!E72))</f>
         <v>BAGUIO, ELMIRA BALANSAG</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -4618,42 +3092,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C73), "", CONCATENATE('Class-Infos'!C73, ", ", 'Class-Infos'!D73, " ", 'Class-Infos'!E73))</f>
         <v>ILUSTRICIMO, BEA CLAIRE IGNACIO</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="str">
@@ -4663,42 +3101,6 @@
       <c r="B25" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
         <v>SARDIDO, GEMMA LEE SORIANO</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,63 +3279,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="C2:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="3" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.15"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="str">
@@ -4944,43 +3420,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C10), "", CONCATENATE('Class-Infos'!C10, ", ", 'Class-Infos'!D10, " ", 'Class-Infos'!E10))</f>
         <v>ABAY ABAY, IAN JAY PARIÑAS</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>89</v>
-      </c>
       <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -4991,43 +3446,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C11), "", CONCATENATE('Class-Infos'!C11, ", ", 'Class-Infos'!D11, " ", 'Class-Infos'!E11))</f>
         <v>ABEJERO, JUSTINE SAGUION</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -5038,43 +3472,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C12), "", CONCATENATE('Class-Infos'!C12, ", ", 'Class-Infos'!D12, " ", 'Class-Infos'!E12))</f>
         <v>ACOSTA, JOHNCARLO ANION</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>80</v>
-      </c>
       <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -5085,43 +3498,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", CONCATENATE('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
         <v>ACOSTA, SHAMERAINE</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>77</v>
-      </c>
       <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -5132,43 +3524,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C14), "", CONCATENATE('Class-Infos'!C14, ", ", 'Class-Infos'!D14, " ", 'Class-Infos'!E14))</f>
         <v>AGUS, ALMOND RAPHAEL JALBAY</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>77</v>
-      </c>
       <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -5179,43 +3550,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
         <v>ALEJANDRO, JEREMY LOPEZ</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>86</v>
-      </c>
       <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -5226,43 +3576,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C16), "", CONCATENATE('Class-Infos'!C16, ", ", 'Class-Infos'!D16, " ", 'Class-Infos'!E16))</f>
         <v>ALEJANDRO, MARK AGBUYA</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>77</v>
-      </c>
       <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -5273,43 +3602,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C17), "", CONCATENATE('Class-Infos'!C17, ", ", 'Class-Infos'!D17, " ", 'Class-Infos'!E17))</f>
         <v>ALETER, JHAYMHARK BOLANOS</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>79</v>
-      </c>
       <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -5320,43 +3628,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C18), "", CONCATENATE('Class-Infos'!C18, ", ", 'Class-Infos'!D18, " ", 'Class-Infos'!E18))</f>
         <v>ALUNDE, LUCKY LUIS YAMSON</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -5367,43 +3654,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C19), "", CONCATENATE('Class-Infos'!C19, ", ", 'Class-Infos'!D19, " ", 'Class-Infos'!E19))</f>
         <v>AMACIO, KHURT RANIEN RANIEN</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>79</v>
-      </c>
       <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -5414,43 +3680,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C20), "", CONCATENATE('Class-Infos'!C20, ", ", 'Class-Infos'!D20, " ", 'Class-Infos'!E20))</f>
         <v>ANDALIS, JIBBY ABUZO</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>78</v>
-      </c>
       <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -5461,43 +3706,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE('Class-Infos'!C21, ", ", 'Class-Infos'!D21, " ", 'Class-Infos'!E21))</f>
         <v>ANDO, PRINCE IVAN REPUYA</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
       <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -5508,43 +3732,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
         <v>ARCEO, JOHNKENNETH MACASINAG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>79</v>
-      </c>
       <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -5555,43 +3758,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C23), "", CONCATENATE('Class-Infos'!C23, ", ", 'Class-Infos'!D23, " ", 'Class-Infos'!E23))</f>
         <v>ARESGADO, CHRISTIAN MACKY MANUEL</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>92</v>
-      </c>
       <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -5602,43 +3784,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C24), "", CONCATENATE('Class-Infos'!C24, ", ", 'Class-Infos'!D24, " ", 'Class-Infos'!E24))</f>
         <v>ARROYO, AGA CEAZAR CAPALARAN</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>77</v>
-      </c>
       <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -5649,43 +3810,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C25), "", CONCATENATE('Class-Infos'!C25, ", ", 'Class-Infos'!D25, " ", 'Class-Infos'!E25))</f>
         <v>ASURTO, PRINCE JHADE JEROSO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>90</v>
-      </c>
       <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -5696,43 +3836,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C26), "", CONCATENATE('Class-Infos'!C26, ", ", 'Class-Infos'!D26, " ", 'Class-Infos'!E26))</f>
         <v>AUSTRIA, JAMES BRYAN DIZON</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>78</v>
-      </c>
       <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -5743,43 +3862,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE('Class-Infos'!C27, ", ", 'Class-Infos'!D27, " ", 'Class-Infos'!E27))</f>
         <v>AVILA, JOB OCFEMIA</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>81</v>
-      </c>
       <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -5790,43 +3888,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C28), "", CONCATENATE('Class-Infos'!C28, ", ", 'Class-Infos'!D28, " ", 'Class-Infos'!E28))</f>
         <v>AYON, JUSTINE DELLA</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>77</v>
-      </c>
       <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -5837,43 +3914,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C29), "", CONCATENATE('Class-Infos'!C29, ", ", 'Class-Infos'!D29, " ", 'Class-Infos'!E29))</f>
         <v>AYOP, WESLEY MICHEN BALBUENA</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>75</v>
-      </c>
       <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -5884,43 +3940,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
         <v>AZARCON, JOHN CEDRICK CORTEZ</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>75</v>
-      </c>
       <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -5931,43 +3966,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C31), "", CONCATENATE('Class-Infos'!C31, ", ", 'Class-Infos'!D31, " ", 'Class-Infos'!E31))</f>
         <v>AZORES, JOSHUA SELERIO</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>75</v>
-      </c>
       <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -5978,43 +3992,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C32), "", CONCATENATE('Class-Infos'!C32, ", ", 'Class-Infos'!D32, " ", 'Class-Infos'!E32))</f>
         <v>BACLAAN, JOVERT MATA</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>83</v>
-      </c>
       <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="str">
@@ -6203,64 +4196,136 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R13" activeCellId="0" sqref="R13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="3" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.15"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,45 +4337,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C51), "", CONCATENATE('Class-Infos'!C51, ", ", 'Class-Infos'!D51, " ", 'Class-Infos'!E51))</f>
         <v>ABELINDE, LEIRA MAE LEGASPI</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v>82</v>
-      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -6321,45 +4363,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C52), "", CONCATENATE('Class-Infos'!C52, ", ", 'Class-Infos'!D52, " ", 'Class-Infos'!E52))</f>
         <v>ABOT, ALISSA KAYL CUSTODIO</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="O3" s="6" t="n">
-        <v>88</v>
-      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -6370,45 +4389,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C53), "", CONCATENATE('Class-Infos'!C53, ", ", 'Class-Infos'!D53, " ", 'Class-Infos'!E53))</f>
         <v>ADONA, PRINCESS LUMAWIG</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>77</v>
-      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -6419,45 +4415,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C54), "", CONCATENATE('Class-Infos'!C54, ", ", 'Class-Infos'!D54, " ", 'Class-Infos'!E54))</f>
         <v>AGAM, AIZEN CHING</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>96</v>
-      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -6468,45 +4441,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C55), "", CONCATENATE('Class-Infos'!C55, ", ", 'Class-Infos'!D55, " ", 'Class-Infos'!E55))</f>
         <v>AGUTAYA, DOREEN FAJARDO</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>91</v>
-      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -6517,45 +4467,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C56), "", CONCATENATE('Class-Infos'!C56, ", ", 'Class-Infos'!D56, " ", 'Class-Infos'!E56))</f>
         <v>ALANANO, XYRIE LOUISE GRATA</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>91</v>
-      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -6566,45 +4493,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C57), "", CONCATENATE('Class-Infos'!C57, ", ", 'Class-Infos'!D57, " ", 'Class-Infos'!E57))</f>
         <v>ALBAO, PRISCILA JOY APALIT</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>84</v>
-      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -6615,45 +4519,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES FACTOR</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>75</v>
-      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -6664,45 +4545,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>75</v>
-      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -6713,45 +4571,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C60), "", CONCATENATE('Class-Infos'!C60, ", ", 'Class-Infos'!D60, " ", 'Class-Infos'!E60))</f>
         <v>ALCANTARA, ZYLEE ANGELA MATILLANO</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>90</v>
-      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -6762,45 +4597,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C61), "", CONCATENATE('Class-Infos'!C61, ", ", 'Class-Infos'!D61, " ", 'Class-Infos'!E61))</f>
         <v>ALCAZARIN, JILLIANE FLORES</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>80</v>
-      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -6811,45 +4623,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
         <v>AMBULO, PRINCESS ANNE BASILIO</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>75</v>
-      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -6860,45 +4649,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C63), "", CONCATENATE('Class-Infos'!C63, ", ", 'Class-Infos'!D63, " ", 'Class-Infos'!E63))</f>
         <v>APOCAY, MA LORRIENE PATAUEG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>77</v>
-      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -6909,45 +4675,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C64), "", CONCATENATE('Class-Infos'!C64, ", ", 'Class-Infos'!D64, " ", 'Class-Infos'!E64))</f>
         <v>ARANDA, MARY ANGEL PILARCA</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>81</v>
-      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -6958,45 +4701,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
         <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>90</v>
-      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -7007,45 +4727,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C66), "", CONCATENATE('Class-Infos'!C66, ", ", 'Class-Infos'!D66, " ", 'Class-Infos'!E66))</f>
         <v>AREVALO, MA GLAIZA CAMERO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>92</v>
-      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -7056,45 +4753,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C67), "", CONCATENATE('Class-Infos'!C67, ", ", 'Class-Infos'!D67, " ", 'Class-Infos'!E67))</f>
         <v>ATCHOCO, CHRISTINE NARCISO</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>82</v>
-      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -7105,45 +4779,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
         <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>85</v>
-      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -7154,45 +4805,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C69), "", CONCATENATE('Class-Infos'!C69, ", ", 'Class-Infos'!D69, " ", 'Class-Infos'!E69))</f>
         <v>AXALAN, PRINCESS CUALES</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>92</v>
-      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -7203,45 +4831,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C70), "", CONCATENATE('Class-Infos'!C70, ", ", 'Class-Infos'!D70, " ", 'Class-Infos'!E70))</f>
         <v>AYON, JELIAN ALICAWAY</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>79</v>
-      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -7252,45 +4857,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
         <v>AZUCENAS, JURIELYN VILLAGANAS</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>77</v>
-      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -7301,45 +4883,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C72), "", CONCATENATE('Class-Infos'!C72, ", ", 'Class-Infos'!D72, " ", 'Class-Infos'!E72))</f>
         <v>BAGUIO, ELMIRA BALANSAG</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>79</v>
-      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -7350,45 +4909,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C73), "", CONCATENATE('Class-Infos'!C73, ", ", 'Class-Infos'!D73, " ", 'Class-Infos'!E73))</f>
         <v>ILUSTRICIMO, BEA CLAIRE IGNACIO</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="O24" s="6" t="n">
-        <v>90</v>
-      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="str">
@@ -7399,45 +4935,22 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
         <v>SARDIDO, GEMMA LEE SORIANO</v>
       </c>
-      <c r="C25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="O25" s="6" t="n">
-        <v>80</v>
-      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="str">
@@ -7595,6 +5108,1763 @@
         <v/>
       </c>
       <c r="B41" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C90), "", CONCATENATE('Class-Infos'!C90, ", ", 'Class-Infos'!D90, " ", 'Class-Infos'!E90))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C2:N24 C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C10), "", CONCATENATE("B", 'Class-Infos'!A10))</f>
+        <v>B1</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C10), "", CONCATENATE('Class-Infos'!C10, ", ", 'Class-Infos'!D10, " ", 'Class-Infos'!E10))</f>
+        <v>ABAY ABAY, IAN JAY PARIÑAS</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C11), "", CONCATENATE("B", 'Class-Infos'!A11))</f>
+        <v>B2</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C11), "", CONCATENATE('Class-Infos'!C11, ", ", 'Class-Infos'!D11, " ", 'Class-Infos'!E11))</f>
+        <v>ABEJERO, JUSTINE SAGUION</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C12), "", CONCATENATE("B", 'Class-Infos'!A12))</f>
+        <v>B3</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C12), "", CONCATENATE('Class-Infos'!C12, ", ", 'Class-Infos'!D12, " ", 'Class-Infos'!E12))</f>
+        <v>ACOSTA, JOHNCARLO ANION</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", CONCATENATE("B", 'Class-Infos'!A13))</f>
+        <v>B4</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", CONCATENATE('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
+        <v>ACOSTA, SHAMERAINE</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C14), "", CONCATENATE("B", 'Class-Infos'!A14))</f>
+        <v>B5</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C14), "", CONCATENATE('Class-Infos'!C14, ", ", 'Class-Infos'!D14, " ", 'Class-Infos'!E14))</f>
+        <v>AGUS, ALMOND RAPHAEL JALBAY</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE("B", 'Class-Infos'!A15))</f>
+        <v>B6</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
+        <v>ALEJANDRO, JEREMY LOPEZ</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C16), "", CONCATENATE("B", 'Class-Infos'!A16))</f>
+        <v>B7</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C16), "", CONCATENATE('Class-Infos'!C16, ", ", 'Class-Infos'!D16, " ", 'Class-Infos'!E16))</f>
+        <v>ALEJANDRO, MARK AGBUYA</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C17), "", CONCATENATE("B", 'Class-Infos'!A17))</f>
+        <v>B8</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C17), "", CONCATENATE('Class-Infos'!C17, ", ", 'Class-Infos'!D17, " ", 'Class-Infos'!E17))</f>
+        <v>ALETER, JHAYMHARK BOLANOS</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C18), "", CONCATENATE("B", 'Class-Infos'!A18))</f>
+        <v>B9</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C18), "", CONCATENATE('Class-Infos'!C18, ", ", 'Class-Infos'!D18, " ", 'Class-Infos'!E18))</f>
+        <v>ALUNDE, LUCKY LUIS YAMSON</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C19), "", CONCATENATE("B", 'Class-Infos'!A19))</f>
+        <v>B10</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C19), "", CONCATENATE('Class-Infos'!C19, ", ", 'Class-Infos'!D19, " ", 'Class-Infos'!E19))</f>
+        <v>AMACIO, KHURT RANIEN RANIEN</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C20), "", CONCATENATE("B", 'Class-Infos'!A20))</f>
+        <v>B11</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C20), "", CONCATENATE('Class-Infos'!C20, ", ", 'Class-Infos'!D20, " ", 'Class-Infos'!E20))</f>
+        <v>ANDALIS, JIBBY ABUZO</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE("B", 'Class-Infos'!A21))</f>
+        <v>B12</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE('Class-Infos'!C21, ", ", 'Class-Infos'!D21, " ", 'Class-Infos'!E21))</f>
+        <v>ANDO, PRINCE IVAN REPUYA</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE("B", 'Class-Infos'!A22))</f>
+        <v>B13</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
+        <v>ARCEO, JOHNKENNETH MACASINAG</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C23), "", CONCATENATE("B", 'Class-Infos'!A23))</f>
+        <v>B14</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C23), "", CONCATENATE('Class-Infos'!C23, ", ", 'Class-Infos'!D23, " ", 'Class-Infos'!E23))</f>
+        <v>ARESGADO, CHRISTIAN MACKY MANUEL</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C24), "", CONCATENATE("B", 'Class-Infos'!A24))</f>
+        <v>B15</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C24), "", CONCATENATE('Class-Infos'!C24, ", ", 'Class-Infos'!D24, " ", 'Class-Infos'!E24))</f>
+        <v>ARROYO, AGA CEAZAR CAPALARAN</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C25), "", CONCATENATE("B", 'Class-Infos'!A25))</f>
+        <v>B16</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C25), "", CONCATENATE('Class-Infos'!C25, ", ", 'Class-Infos'!D25, " ", 'Class-Infos'!E25))</f>
+        <v>ASURTO, PRINCE JHADE JEROSO</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C26), "", CONCATENATE("B", 'Class-Infos'!A26))</f>
+        <v>B17</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C26), "", CONCATENATE('Class-Infos'!C26, ", ", 'Class-Infos'!D26, " ", 'Class-Infos'!E26))</f>
+        <v>AUSTRIA, JAMES BRYAN DIZON</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE("B", 'Class-Infos'!A27))</f>
+        <v>B18</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE('Class-Infos'!C27, ", ", 'Class-Infos'!D27, " ", 'Class-Infos'!E27))</f>
+        <v>AVILA, JOB OCFEMIA</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C28), "", CONCATENATE("B", 'Class-Infos'!A28))</f>
+        <v>B19</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C28), "", CONCATENATE('Class-Infos'!C28, ", ", 'Class-Infos'!D28, " ", 'Class-Infos'!E28))</f>
+        <v>AYON, JUSTINE DELLA</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C29), "", CONCATENATE("B", 'Class-Infos'!A29))</f>
+        <v>B20</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C29), "", CONCATENATE('Class-Infos'!C29, ", ", 'Class-Infos'!D29, " ", 'Class-Infos'!E29))</f>
+        <v>AYOP, WESLEY MICHEN BALBUENA</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE("B", 'Class-Infos'!A30))</f>
+        <v>B21</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
+        <v>AZARCON, JOHN CEDRICK CORTEZ</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C31), "", CONCATENATE("B", 'Class-Infos'!A31))</f>
+        <v>B22</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C31), "", CONCATENATE('Class-Infos'!C31, ", ", 'Class-Infos'!D31, " ", 'Class-Infos'!E31))</f>
+        <v>AZORES, JOSHUA SELERIO</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C32), "", CONCATENATE("B", 'Class-Infos'!A32))</f>
+        <v>B23</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C32), "", CONCATENATE('Class-Infos'!C32, ", ", 'Class-Infos'!D32, " ", 'Class-Infos'!E32))</f>
+        <v>BACLAAN, JOVERT MATA</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C33), "", CONCATENATE("B", 'Class-Infos'!A33))</f>
+        <v/>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C33), "", CONCATENATE('Class-Infos'!C33, ", ", 'Class-Infos'!D33, " ", 'Class-Infos'!E33))</f>
+        <v/>
+      </c>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C34), "", CONCATENATE("B", 'Class-Infos'!A34))</f>
+        <v/>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C34), "", CONCATENATE('Class-Infos'!C34, ", ", 'Class-Infos'!D34, " ", 'Class-Infos'!E34))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C35), "", CONCATENATE("B", 'Class-Infos'!A35))</f>
+        <v/>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C35), "", CONCATENATE('Class-Infos'!C35, ", ", 'Class-Infos'!D35, " ", 'Class-Infos'!E35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C36), "", CONCATENATE("B", 'Class-Infos'!A36))</f>
+        <v/>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C36), "", CONCATENATE('Class-Infos'!C36, ", ", 'Class-Infos'!D36, " ", 'Class-Infos'!E36))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C37), "", CONCATENATE("B", 'Class-Infos'!A37))</f>
+        <v/>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C37), "", CONCATENATE('Class-Infos'!C37, ", ", 'Class-Infos'!D37, " ", 'Class-Infos'!E37))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C38), "", CONCATENATE("B", 'Class-Infos'!A38))</f>
+        <v/>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C38), "", CONCATENATE('Class-Infos'!C38, ", ", 'Class-Infos'!D38, " ", 'Class-Infos'!E38))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C39), "", CONCATENATE("B", 'Class-Infos'!A39))</f>
+        <v/>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C39), "", CONCATENATE('Class-Infos'!C39, ", ", 'Class-Infos'!D39, " ", 'Class-Infos'!E39))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C40), "", CONCATENATE("B", 'Class-Infos'!A40))</f>
+        <v/>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C40), "", CONCATENATE('Class-Infos'!C40, ", ", 'Class-Infos'!D40, " ", 'Class-Infos'!E40))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C41), "", CONCATENATE("B", 'Class-Infos'!A41))</f>
+        <v/>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C41), "", CONCATENATE('Class-Infos'!C41, ", ", 'Class-Infos'!D41, " ", 'Class-Infos'!E41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C42), "", CONCATENATE("B", 'Class-Infos'!A42))</f>
+        <v/>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C42), "", CONCATENATE('Class-Infos'!C42, ", ", 'Class-Infos'!D42, " ", 'Class-Infos'!E42))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C43), "", CONCATENATE("B", 'Class-Infos'!A43))</f>
+        <v/>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C43), "", CONCATENATE('Class-Infos'!C43, ", ", 'Class-Infos'!D43, " ", 'Class-Infos'!E43))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C44), "", CONCATENATE("B", 'Class-Infos'!A44))</f>
+        <v/>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C44), "", CONCATENATE('Class-Infos'!C44, ", ", 'Class-Infos'!D44, " ", 'Class-Infos'!E44))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C45), "", CONCATENATE("B", 'Class-Infos'!A45))</f>
+        <v/>
+      </c>
+      <c r="B38" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C45), "", CONCATENATE('Class-Infos'!C45, ", ", 'Class-Infos'!D45, " ", 'Class-Infos'!E45))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C46), "", CONCATENATE("B", 'Class-Infos'!A46))</f>
+        <v/>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C46), "", CONCATENATE('Class-Infos'!C46, ", ", 'Class-Infos'!D46, " ", 'Class-Infos'!E46))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C47), "", CONCATENATE("B", 'Class-Infos'!A47))</f>
+        <v/>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C47), "", CONCATENATE('Class-Infos'!C47, ", ", 'Class-Infos'!D47, " ", 'Class-Infos'!E47))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C48), "", CONCATENATE("B", 'Class-Infos'!A48))</f>
+        <v/>
+      </c>
+      <c r="B41" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C48), "", CONCATENATE('Class-Infos'!C48, ", ", 'Class-Infos'!D48, " ", 'Class-Infos'!E48))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C49), "", CONCATENATE("B", 'Class-Infos'!A49))</f>
+        <v/>
+      </c>
+      <c r="B42" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C49), "", CONCATENATE('Class-Infos'!C49, ", ", 'Class-Infos'!D49, " ", 'Class-Infos'!E49))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C2:N24 C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C51), "", CONCATENATE("G", 'Class-Infos'!A51))</f>
+        <v>G1</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C51), "", CONCATENATE('Class-Infos'!C51, ", ", 'Class-Infos'!D51, " ", 'Class-Infos'!E51))</f>
+        <v>ABELINDE, LEIRA MAE LEGASPI</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C52), "", CONCATENATE("G", 'Class-Infos'!A52))</f>
+        <v>G2</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C52), "", CONCATENATE('Class-Infos'!C52, ", ", 'Class-Infos'!D52, " ", 'Class-Infos'!E52))</f>
+        <v>ABOT, ALISSA KAYL CUSTODIO</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C53), "", CONCATENATE("G", 'Class-Infos'!A53))</f>
+        <v>G3</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C53), "", CONCATENATE('Class-Infos'!C53, ", ", 'Class-Infos'!D53, " ", 'Class-Infos'!E53))</f>
+        <v>ADONA, PRINCESS LUMAWIG</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C54), "", CONCATENATE("G", 'Class-Infos'!A54))</f>
+        <v>G4</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C54), "", CONCATENATE('Class-Infos'!C54, ", ", 'Class-Infos'!D54, " ", 'Class-Infos'!E54))</f>
+        <v>AGAM, AIZEN CHING</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C55), "", CONCATENATE("G", 'Class-Infos'!A55))</f>
+        <v>G5</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C55), "", CONCATENATE('Class-Infos'!C55, ", ", 'Class-Infos'!D55, " ", 'Class-Infos'!E55))</f>
+        <v>AGUTAYA, DOREEN FAJARDO</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C56), "", CONCATENATE("G", 'Class-Infos'!A56))</f>
+        <v>G6</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C56), "", CONCATENATE('Class-Infos'!C56, ", ", 'Class-Infos'!D56, " ", 'Class-Infos'!E56))</f>
+        <v>ALANANO, XYRIE LOUISE GRATA</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C57), "", CONCATENATE("G", 'Class-Infos'!A57))</f>
+        <v>G7</v>
+      </c>
+      <c r="B9" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C57), "", CONCATENATE('Class-Infos'!C57, ", ", 'Class-Infos'!D57, " ", 'Class-Infos'!E57))</f>
+        <v>ALBAO, PRISCILA JOY APALIT</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE("G", 'Class-Infos'!A58))</f>
+        <v>G8</v>
+      </c>
+      <c r="B10" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
+        <v>ALBIOLA, PRINCES FACTOR</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE("G", 'Class-Infos'!A59))</f>
+        <v>G9</v>
+      </c>
+      <c r="B11" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
+        <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C60), "", CONCATENATE("G", 'Class-Infos'!A60))</f>
+        <v>G10</v>
+      </c>
+      <c r="B12" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C60), "", CONCATENATE('Class-Infos'!C60, ", ", 'Class-Infos'!D60, " ", 'Class-Infos'!E60))</f>
+        <v>ALCANTARA, ZYLEE ANGELA MATILLANO</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C61), "", CONCATENATE("G", 'Class-Infos'!A61))</f>
+        <v>G11</v>
+      </c>
+      <c r="B13" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C61), "", CONCATENATE('Class-Infos'!C61, ", ", 'Class-Infos'!D61, " ", 'Class-Infos'!E61))</f>
+        <v>ALCAZARIN, JILLIANE FLORES</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE("G", 'Class-Infos'!A62))</f>
+        <v>G12</v>
+      </c>
+      <c r="B14" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
+        <v>AMBULO, PRINCESS ANNE BASILIO</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C63), "", CONCATENATE("G", 'Class-Infos'!A63))</f>
+        <v>G13</v>
+      </c>
+      <c r="B15" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C63), "", CONCATENATE('Class-Infos'!C63, ", ", 'Class-Infos'!D63, " ", 'Class-Infos'!E63))</f>
+        <v>APOCAY, MA LORRIENE PATAUEG</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C64), "", CONCATENATE("G", 'Class-Infos'!A64))</f>
+        <v>G14</v>
+      </c>
+      <c r="B16" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C64), "", CONCATENATE('Class-Infos'!C64, ", ", 'Class-Infos'!D64, " ", 'Class-Infos'!E64))</f>
+        <v>ARANDA, MARY ANGEL PILARCA</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE("G", 'Class-Infos'!A65))</f>
+        <v>G15</v>
+      </c>
+      <c r="B17" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
+        <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C66), "", CONCATENATE("G", 'Class-Infos'!A66))</f>
+        <v>G16</v>
+      </c>
+      <c r="B18" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C66), "", CONCATENATE('Class-Infos'!C66, ", ", 'Class-Infos'!D66, " ", 'Class-Infos'!E66))</f>
+        <v>AREVALO, MA GLAIZA CAMERO</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C67), "", CONCATENATE("G", 'Class-Infos'!A67))</f>
+        <v>G17</v>
+      </c>
+      <c r="B19" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C67), "", CONCATENATE('Class-Infos'!C67, ", ", 'Class-Infos'!D67, " ", 'Class-Infos'!E67))</f>
+        <v>ATCHOCO, CHRISTINE NARCISO</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE("G", 'Class-Infos'!A68))</f>
+        <v>G18</v>
+      </c>
+      <c r="B20" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
+        <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C69), "", CONCATENATE("G", 'Class-Infos'!A69))</f>
+        <v>G19</v>
+      </c>
+      <c r="B21" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C69), "", CONCATENATE('Class-Infos'!C69, ", ", 'Class-Infos'!D69, " ", 'Class-Infos'!E69))</f>
+        <v>AXALAN, PRINCESS CUALES</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C70), "", CONCATENATE("G", 'Class-Infos'!A70))</f>
+        <v>G20</v>
+      </c>
+      <c r="B22" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C70), "", CONCATENATE('Class-Infos'!C70, ", ", 'Class-Infos'!D70, " ", 'Class-Infos'!E70))</f>
+        <v>AYON, JELIAN ALICAWAY</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE("G", 'Class-Infos'!A71))</f>
+        <v>G21</v>
+      </c>
+      <c r="B23" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
+        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C72), "", CONCATENATE("G", 'Class-Infos'!A72))</f>
+        <v>G22</v>
+      </c>
+      <c r="B24" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C72), "", CONCATENATE('Class-Infos'!C72, ", ", 'Class-Infos'!D72, " ", 'Class-Infos'!E72))</f>
+        <v>BAGUIO, ELMIRA BALANSAG</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C73), "", CONCATENATE("G", 'Class-Infos'!A73))</f>
+        <v>G23</v>
+      </c>
+      <c r="B25" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C73), "", CONCATENATE('Class-Infos'!C73, ", ", 'Class-Infos'!D73, " ", 'Class-Infos'!E73))</f>
+        <v>ILUSTRICIMO, BEA CLAIRE IGNACIO</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE("G", 'Class-Infos'!A74))</f>
+        <v>G24</v>
+      </c>
+      <c r="B26" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
+        <v>SARDIDO, GEMMA LEE SORIANO</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C75), "", CONCATENATE("G", 'Class-Infos'!A75))</f>
+        <v/>
+      </c>
+      <c r="B27" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C75), "", CONCATENATE('Class-Infos'!C75, ", ", 'Class-Infos'!D75, " ", 'Class-Infos'!E75))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C76), "", CONCATENATE("G", 'Class-Infos'!A76))</f>
+        <v/>
+      </c>
+      <c r="B28" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C76), "", CONCATENATE('Class-Infos'!C76, ", ", 'Class-Infos'!D76, " ", 'Class-Infos'!E76))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C77), "", CONCATENATE("G", 'Class-Infos'!A77))</f>
+        <v/>
+      </c>
+      <c r="B29" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C77), "", CONCATENATE('Class-Infos'!C77, ", ", 'Class-Infos'!D77, " ", 'Class-Infos'!E77))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C78), "", CONCATENATE("G", 'Class-Infos'!A78))</f>
+        <v/>
+      </c>
+      <c r="B30" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C78), "", CONCATENATE('Class-Infos'!C78, ", ", 'Class-Infos'!D78, " ", 'Class-Infos'!E78))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C79), "", CONCATENATE("G", 'Class-Infos'!A79))</f>
+        <v/>
+      </c>
+      <c r="B31" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C79), "", CONCATENATE('Class-Infos'!C79, ", ", 'Class-Infos'!D79, " ", 'Class-Infos'!E79))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C80), "", CONCATENATE("G", 'Class-Infos'!A80))</f>
+        <v/>
+      </c>
+      <c r="B32" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C80), "", CONCATENATE('Class-Infos'!C80, ", ", 'Class-Infos'!D80, " ", 'Class-Infos'!E80))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C81), "", CONCATENATE("G", 'Class-Infos'!A81))</f>
+        <v/>
+      </c>
+      <c r="B33" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C81), "", CONCATENATE('Class-Infos'!C81, ", ", 'Class-Infos'!D81, " ", 'Class-Infos'!E81))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C82), "", CONCATENATE("G", 'Class-Infos'!A82))</f>
+        <v/>
+      </c>
+      <c r="B34" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C82), "", CONCATENATE('Class-Infos'!C82, ", ", 'Class-Infos'!D82, " ", 'Class-Infos'!E82))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C83), "", CONCATENATE("G", 'Class-Infos'!A83))</f>
+        <v/>
+      </c>
+      <c r="B35" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C83), "", CONCATENATE('Class-Infos'!C83, ", ", 'Class-Infos'!D83, " ", 'Class-Infos'!E83))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C84), "", CONCATENATE("G", 'Class-Infos'!A84))</f>
+        <v/>
+      </c>
+      <c r="B36" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C84), "", CONCATENATE('Class-Infos'!C84, ", ", 'Class-Infos'!D84, " ", 'Class-Infos'!E84))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C85), "", CONCATENATE("G", 'Class-Infos'!A85))</f>
+        <v/>
+      </c>
+      <c r="B37" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C85), "", CONCATENATE('Class-Infos'!C85, ", ", 'Class-Infos'!D85, " ", 'Class-Infos'!E85))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C86), "", CONCATENATE("G", 'Class-Infos'!A86))</f>
+        <v/>
+      </c>
+      <c r="B38" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C86), "", CONCATENATE('Class-Infos'!C86, ", ", 'Class-Infos'!D86, " ", 'Class-Infos'!E86))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C87), "", CONCATENATE("G", 'Class-Infos'!A87))</f>
+        <v/>
+      </c>
+      <c r="B39" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C87), "", CONCATENATE('Class-Infos'!C87, ", ", 'Class-Infos'!D87, " ", 'Class-Infos'!E87))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C88), "", CONCATENATE("G", 'Class-Infos'!A88))</f>
+        <v/>
+      </c>
+      <c r="B40" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C88), "", CONCATENATE('Class-Infos'!C88, ", ", 'Class-Infos'!D88, " ", 'Class-Infos'!E88))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C89), "", CONCATENATE("G", 'Class-Infos'!A89))</f>
+        <v/>
+      </c>
+      <c r="B41" s="0" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C89), "", CONCATENATE('Class-Infos'!C89, ", ", 'Class-Infos'!D89, " ", 'Class-Infos'!E89))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="str">
+        <f aca="false">IF(ISBLANK('Class-Infos'!C90), "", CONCATENATE("G", 'Class-Infos'!A90))</f>
+        <v/>
+      </c>
+      <c r="B42" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C90), "", CONCATENATE('Class-Infos'!C90, ", ", 'Class-Infos'!D90, " ", 'Class-Infos'!E90))</f>
         <v/>
       </c>
@@ -7618,7 +6888,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="C2:N24 B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9535,7 +8805,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C2:N24 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11452,7 +10722,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13013,7 +12283,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14350,7 +13620,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15651,7 +14921,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16988,7 +16258,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="C2:N24 B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18289,7 +17559,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="1" sqref="C2:N24 B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ecard-infos.xlsx
+++ b/ecard-infos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Class-Infos" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="252">
   <si>
     <t xml:space="preserve">Adviser’s Name </t>
   </si>
@@ -757,6 +757,18 @@
   </si>
   <si>
     <t xml:space="preserve">MakabansaB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">No. of</t>
@@ -934,7 +946,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D64" activeCellId="1" sqref="C2:N24 D64"/>
+      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2335,8 +2347,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:N24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2809,7 +2821,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:N24"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3282,7 +3294,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="C2:N24"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3420,6 +3432,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C10), "", CONCATENATE('Class-Infos'!C10, ", ", 'Class-Infos'!D10, " ", 'Class-Infos'!E10))</f>
         <v>ABAY ABAY, IAN JAY PARIÑAS</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -3446,6 +3479,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C11), "", CONCATENATE('Class-Infos'!C11, ", ", 'Class-Infos'!D11, " ", 'Class-Infos'!E11))</f>
         <v>ABEJERO, JUSTINE SAGUION</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -3472,6 +3526,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C12), "", CONCATENATE('Class-Infos'!C12, ", ", 'Class-Infos'!D12, " ", 'Class-Infos'!E12))</f>
         <v>ACOSTA, JOHNCARLO ANION</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -3498,6 +3573,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", CONCATENATE('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
         <v>ACOSTA, SHAMERAINE</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -3524,6 +3620,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C14), "", CONCATENATE('Class-Infos'!C14, ", ", 'Class-Infos'!D14, " ", 'Class-Infos'!E14))</f>
         <v>AGUS, ALMOND RAPHAEL JALBAY</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -3550,6 +3667,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
         <v>ALEJANDRO, JEREMY LOPEZ</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -3576,6 +3714,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C16), "", CONCATENATE('Class-Infos'!C16, ", ", 'Class-Infos'!D16, " ", 'Class-Infos'!E16))</f>
         <v>ALEJANDRO, MARK AGBUYA</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -3602,6 +3761,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C17), "", CONCATENATE('Class-Infos'!C17, ", ", 'Class-Infos'!D17, " ", 'Class-Infos'!E17))</f>
         <v>ALETER, JHAYMHARK BOLANOS</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -3628,6 +3808,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C18), "", CONCATENATE('Class-Infos'!C18, ", ", 'Class-Infos'!D18, " ", 'Class-Infos'!E18))</f>
         <v>ALUNDE, LUCKY LUIS YAMSON</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -3654,6 +3855,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C19), "", CONCATENATE('Class-Infos'!C19, ", ", 'Class-Infos'!D19, " ", 'Class-Infos'!E19))</f>
         <v>AMACIO, KHURT RANIEN RANIEN</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -3680,6 +3902,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C20), "", CONCATENATE('Class-Infos'!C20, ", ", 'Class-Infos'!D20, " ", 'Class-Infos'!E20))</f>
         <v>ANDALIS, JIBBY ABUZO</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -3706,6 +3949,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE('Class-Infos'!C21, ", ", 'Class-Infos'!D21, " ", 'Class-Infos'!E21))</f>
         <v>ANDO, PRINCE IVAN REPUYA</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -3732,6 +3996,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
         <v>ARCEO, JOHNKENNETH MACASINAG</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -3758,6 +4043,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C23), "", CONCATENATE('Class-Infos'!C23, ", ", 'Class-Infos'!D23, " ", 'Class-Infos'!E23))</f>
         <v>ARESGADO, CHRISTIAN MACKY MANUEL</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -3784,6 +4090,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C24), "", CONCATENATE('Class-Infos'!C24, ", ", 'Class-Infos'!D24, " ", 'Class-Infos'!E24))</f>
         <v>ARROYO, AGA CEAZAR CAPALARAN</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -3810,6 +4137,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C25), "", CONCATENATE('Class-Infos'!C25, ", ", 'Class-Infos'!D25, " ", 'Class-Infos'!E25))</f>
         <v>ASURTO, PRINCE JHADE JEROSO</v>
       </c>
+      <c r="C17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -3836,6 +4184,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C26), "", CONCATENATE('Class-Infos'!C26, ", ", 'Class-Infos'!D26, " ", 'Class-Infos'!E26))</f>
         <v>AUSTRIA, JAMES BRYAN DIZON</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -3862,6 +4231,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE('Class-Infos'!C27, ", ", 'Class-Infos'!D27, " ", 'Class-Infos'!E27))</f>
         <v>AVILA, JOB OCFEMIA</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -3888,6 +4278,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C28), "", CONCATENATE('Class-Infos'!C28, ", ", 'Class-Infos'!D28, " ", 'Class-Infos'!E28))</f>
         <v>AYON, JUSTINE DELLA</v>
       </c>
+      <c r="C20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -3914,6 +4325,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C29), "", CONCATENATE('Class-Infos'!C29, ", ", 'Class-Infos'!D29, " ", 'Class-Infos'!E29))</f>
         <v>AYOP, WESLEY MICHEN BALBUENA</v>
       </c>
+      <c r="C21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -3940,6 +4372,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
         <v>AZARCON, JOHN CEDRICK CORTEZ</v>
       </c>
+      <c r="C22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -3966,6 +4419,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C31), "", CONCATENATE('Class-Infos'!C31, ", ", 'Class-Infos'!D31, " ", 'Class-Infos'!E31))</f>
         <v>AZORES, JOSHUA SELERIO</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -3991,6 +4465,27 @@
       <c r="B24" s="5" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C32), "", CONCATENATE('Class-Infos'!C32, ", ", 'Class-Infos'!D32, " ", 'Class-Infos'!E32))</f>
         <v>BACLAAN, JOVERT MATA</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -4198,8 +4693,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:N24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4337,6 +4832,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C51), "", CONCATENATE('Class-Infos'!C51, ", ", 'Class-Infos'!D51, " ", 'Class-Infos'!E51))</f>
         <v>ABELINDE, LEIRA MAE LEGASPI</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -4363,6 +4879,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C52), "", CONCATENATE('Class-Infos'!C52, ", ", 'Class-Infos'!D52, " ", 'Class-Infos'!E52))</f>
         <v>ABOT, ALISSA KAYL CUSTODIO</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -4389,6 +4926,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C53), "", CONCATENATE('Class-Infos'!C53, ", ", 'Class-Infos'!D53, " ", 'Class-Infos'!E53))</f>
         <v>ADONA, PRINCESS LUMAWIG</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -4415,6 +4973,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C54), "", CONCATENATE('Class-Infos'!C54, ", ", 'Class-Infos'!D54, " ", 'Class-Infos'!E54))</f>
         <v>AGAM, AIZEN CHING</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -4441,6 +5020,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C55), "", CONCATENATE('Class-Infos'!C55, ", ", 'Class-Infos'!D55, " ", 'Class-Infos'!E55))</f>
         <v>AGUTAYA, DOREEN FAJARDO</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -4467,6 +5067,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C56), "", CONCATENATE('Class-Infos'!C56, ", ", 'Class-Infos'!D56, " ", 'Class-Infos'!E56))</f>
         <v>ALANANO, XYRIE LOUISE GRATA</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -4493,6 +5114,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C57), "", CONCATENATE('Class-Infos'!C57, ", ", 'Class-Infos'!D57, " ", 'Class-Infos'!E57))</f>
         <v>ALBAO, PRISCILA JOY APALIT</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -4519,6 +5161,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES FACTOR</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -4545,6 +5208,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -4571,6 +5255,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C60), "", CONCATENATE('Class-Infos'!C60, ", ", 'Class-Infos'!D60, " ", 'Class-Infos'!E60))</f>
         <v>ALCANTARA, ZYLEE ANGELA MATILLANO</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -4597,6 +5302,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C61), "", CONCATENATE('Class-Infos'!C61, ", ", 'Class-Infos'!D61, " ", 'Class-Infos'!E61))</f>
         <v>ALCAZARIN, JILLIANE FLORES</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -4623,6 +5349,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
         <v>AMBULO, PRINCESS ANNE BASILIO</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -4649,6 +5396,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C63), "", CONCATENATE('Class-Infos'!C63, ", ", 'Class-Infos'!D63, " ", 'Class-Infos'!E63))</f>
         <v>APOCAY, MA LORRIENE PATAUEG</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -4675,6 +5443,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C64), "", CONCATENATE('Class-Infos'!C64, ", ", 'Class-Infos'!D64, " ", 'Class-Infos'!E64))</f>
         <v>ARANDA, MARY ANGEL PILARCA</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -4701,6 +5490,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
         <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -4727,6 +5537,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C66), "", CONCATENATE('Class-Infos'!C66, ", ", 'Class-Infos'!D66, " ", 'Class-Infos'!E66))</f>
         <v>AREVALO, MA GLAIZA CAMERO</v>
       </c>
+      <c r="C17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -4753,6 +5584,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C67), "", CONCATENATE('Class-Infos'!C67, ", ", 'Class-Infos'!D67, " ", 'Class-Infos'!E67))</f>
         <v>ATCHOCO, CHRISTINE NARCISO</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -4779,6 +5631,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
         <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -4805,6 +5678,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C69), "", CONCATENATE('Class-Infos'!C69, ", ", 'Class-Infos'!D69, " ", 'Class-Infos'!E69))</f>
         <v>AXALAN, PRINCESS CUALES</v>
       </c>
+      <c r="C20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -4831,6 +5725,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C70), "", CONCATENATE('Class-Infos'!C70, ", ", 'Class-Infos'!D70, " ", 'Class-Infos'!E70))</f>
         <v>AYON, JELIAN ALICAWAY</v>
       </c>
+      <c r="C21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -4857,6 +5772,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
         <v>AZUCENAS, JURIELYN VILLAGANAS</v>
       </c>
+      <c r="C22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -4883,6 +5819,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C72), "", CONCATENATE('Class-Infos'!C72, ", ", 'Class-Infos'!D72, " ", 'Class-Infos'!E72))</f>
         <v>BAGUIO, ELMIRA BALANSAG</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -4909,6 +5866,27 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C73), "", CONCATENATE('Class-Infos'!C73, ", ", 'Class-Infos'!D73, " ", 'Class-Infos'!E73))</f>
         <v>ILUSTRICIMO, BEA CLAIRE IGNACIO</v>
       </c>
+      <c r="C24" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -4934,6 +5912,27 @@
       <c r="B25" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
         <v>SARDIDO, GEMMA LEE SORIANO</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -5131,7 +6130,7 @@
   <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C2:N24 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5170,10 +6169,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,34 +6183,34 @@
         <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6002,7 +7001,7 @@
   <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C2:N24 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6041,10 +7040,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,34 +7054,34 @@
         <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6888,7 +7887,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="C2:N24 B42"/>
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8805,7 +9804,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C2:N24 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10722,7 +11721,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12283,7 +13282,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13620,7 +14619,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13683,42 +14682,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C10), "", CONCATENATE('Class-Infos'!C10, ", ", 'Class-Infos'!D10, " ", 'Class-Infos'!E10))</f>
         <v>ABAY ABAY, IAN JAY PARIÑAS</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -13729,42 +14692,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C11), "", CONCATENATE('Class-Infos'!C11, ", ", 'Class-Infos'!D11, " ", 'Class-Infos'!E11))</f>
         <v>ABEJERO, JUSTINE SAGUION</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -13775,42 +14702,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C12), "", CONCATENATE('Class-Infos'!C12, ", ", 'Class-Infos'!D12, " ", 'Class-Infos'!E12))</f>
         <v>ACOSTA, JOHNCARLO ANION</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -13821,42 +14712,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", CONCATENATE('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
         <v>ACOSTA, SHAMERAINE</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -13867,42 +14722,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C14), "", CONCATENATE('Class-Infos'!C14, ", ", 'Class-Infos'!D14, " ", 'Class-Infos'!E14))</f>
         <v>AGUS, ALMOND RAPHAEL JALBAY</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -13913,42 +14732,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
         <v>ALEJANDRO, JEREMY LOPEZ</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -13959,42 +14742,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C16), "", CONCATENATE('Class-Infos'!C16, ", ", 'Class-Infos'!D16, " ", 'Class-Infos'!E16))</f>
         <v>ALEJANDRO, MARK AGBUYA</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -14005,42 +14752,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C17), "", CONCATENATE('Class-Infos'!C17, ", ", 'Class-Infos'!D17, " ", 'Class-Infos'!E17))</f>
         <v>ALETER, JHAYMHARK BOLANOS</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -14051,42 +14762,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C18), "", CONCATENATE('Class-Infos'!C18, ", ", 'Class-Infos'!D18, " ", 'Class-Infos'!E18))</f>
         <v>ALUNDE, LUCKY LUIS YAMSON</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -14097,42 +14772,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C19), "", CONCATENATE('Class-Infos'!C19, ", ", 'Class-Infos'!D19, " ", 'Class-Infos'!E19))</f>
         <v>AMACIO, KHURT RANIEN RANIEN</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -14143,42 +14782,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C20), "", CONCATENATE('Class-Infos'!C20, ", ", 'Class-Infos'!D20, " ", 'Class-Infos'!E20))</f>
         <v>ANDALIS, JIBBY ABUZO</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -14189,42 +14792,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE('Class-Infos'!C21, ", ", 'Class-Infos'!D21, " ", 'Class-Infos'!E21))</f>
         <v>ANDO, PRINCE IVAN REPUYA</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -14235,42 +14802,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
         <v>ARCEO, JOHNKENNETH MACASINAG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -14281,42 +14812,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C23), "", CONCATENATE('Class-Infos'!C23, ", ", 'Class-Infos'!D23, " ", 'Class-Infos'!E23))</f>
         <v>ARESGADO, CHRISTIAN MACKY MANUEL</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -14327,42 +14822,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C24), "", CONCATENATE('Class-Infos'!C24, ", ", 'Class-Infos'!D24, " ", 'Class-Infos'!E24))</f>
         <v>ARROYO, AGA CEAZAR CAPALARAN</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -14373,42 +14832,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C25), "", CONCATENATE('Class-Infos'!C25, ", ", 'Class-Infos'!D25, " ", 'Class-Infos'!E25))</f>
         <v>ASURTO, PRINCE JHADE JEROSO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -14419,42 +14842,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C26), "", CONCATENATE('Class-Infos'!C26, ", ", 'Class-Infos'!D26, " ", 'Class-Infos'!E26))</f>
         <v>AUSTRIA, JAMES BRYAN DIZON</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -14465,42 +14852,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE('Class-Infos'!C27, ", ", 'Class-Infos'!D27, " ", 'Class-Infos'!E27))</f>
         <v>AVILA, JOB OCFEMIA</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -14511,42 +14862,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C28), "", CONCATENATE('Class-Infos'!C28, ", ", 'Class-Infos'!D28, " ", 'Class-Infos'!E28))</f>
         <v>AYON, JUSTINE DELLA</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -14557,42 +14872,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C29), "", CONCATENATE('Class-Infos'!C29, ", ", 'Class-Infos'!D29, " ", 'Class-Infos'!E29))</f>
         <v>AYOP, WESLEY MICHEN BALBUENA</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -14603,42 +14882,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
         <v>AZARCON, JOHN CEDRICK CORTEZ</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -14649,42 +14892,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C31), "", CONCATENATE('Class-Infos'!C31, ", ", 'Class-Infos'!D31, " ", 'Class-Infos'!E31))</f>
         <v>AZORES, JOSHUA SELERIO</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -14694,42 +14901,6 @@
       <c r="B24" s="5" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C32), "", CONCATENATE('Class-Infos'!C32, ", ", 'Class-Infos'!D32, " ", 'Class-Infos'!E32))</f>
         <v>BACLAAN, JOVERT MATA</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14921,7 +15092,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:N24 A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14984,42 +15155,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C51), "", CONCATENATE('Class-Infos'!C51, ", ", 'Class-Infos'!D51, " ", 'Class-Infos'!E51))</f>
         <v>ABELINDE, LEIRA MAE LEGASPI</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -15030,42 +15165,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C52), "", CONCATENATE('Class-Infos'!C52, ", ", 'Class-Infos'!D52, " ", 'Class-Infos'!E52))</f>
         <v>ABOT, ALISSA KAYL CUSTODIO</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -15076,42 +15175,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C53), "", CONCATENATE('Class-Infos'!C53, ", ", 'Class-Infos'!D53, " ", 'Class-Infos'!E53))</f>
         <v>ADONA, PRINCESS LUMAWIG</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -15122,42 +15185,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C54), "", CONCATENATE('Class-Infos'!C54, ", ", 'Class-Infos'!D54, " ", 'Class-Infos'!E54))</f>
         <v>AGAM, AIZEN CHING</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -15168,42 +15195,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C55), "", CONCATENATE('Class-Infos'!C55, ", ", 'Class-Infos'!D55, " ", 'Class-Infos'!E55))</f>
         <v>AGUTAYA, DOREEN FAJARDO</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -15214,42 +15205,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C56), "", CONCATENATE('Class-Infos'!C56, ", ", 'Class-Infos'!D56, " ", 'Class-Infos'!E56))</f>
         <v>ALANANO, XYRIE LOUISE GRATA</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -15260,42 +15215,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C57), "", CONCATENATE('Class-Infos'!C57, ", ", 'Class-Infos'!D57, " ", 'Class-Infos'!E57))</f>
         <v>ALBAO, PRISCILA JOY APALIT</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -15306,42 +15225,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES FACTOR</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -15352,42 +15235,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -15398,42 +15245,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C60), "", CONCATENATE('Class-Infos'!C60, ", ", 'Class-Infos'!D60, " ", 'Class-Infos'!E60))</f>
         <v>ALCANTARA, ZYLEE ANGELA MATILLANO</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -15444,42 +15255,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C61), "", CONCATENATE('Class-Infos'!C61, ", ", 'Class-Infos'!D61, " ", 'Class-Infos'!E61))</f>
         <v>ALCAZARIN, JILLIANE FLORES</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -15490,42 +15265,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
         <v>AMBULO, PRINCESS ANNE BASILIO</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -15536,42 +15275,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C63), "", CONCATENATE('Class-Infos'!C63, ", ", 'Class-Infos'!D63, " ", 'Class-Infos'!E63))</f>
         <v>APOCAY, MA LORRIENE PATAUEG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -15582,42 +15285,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C64), "", CONCATENATE('Class-Infos'!C64, ", ", 'Class-Infos'!D64, " ", 'Class-Infos'!E64))</f>
         <v>ARANDA, MARY ANGEL PILARCA</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -15628,42 +15295,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
         <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -15674,42 +15305,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C66), "", CONCATENATE('Class-Infos'!C66, ", ", 'Class-Infos'!D66, " ", 'Class-Infos'!E66))</f>
         <v>AREVALO, MA GLAIZA CAMERO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -15720,42 +15315,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C67), "", CONCATENATE('Class-Infos'!C67, ", ", 'Class-Infos'!D67, " ", 'Class-Infos'!E67))</f>
         <v>ATCHOCO, CHRISTINE NARCISO</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -15766,42 +15325,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
         <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -15812,42 +15335,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C69), "", CONCATENATE('Class-Infos'!C69, ", ", 'Class-Infos'!D69, " ", 'Class-Infos'!E69))</f>
         <v>AXALAN, PRINCESS CUALES</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -15858,42 +15345,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C70), "", CONCATENATE('Class-Infos'!C70, ", ", 'Class-Infos'!D70, " ", 'Class-Infos'!E70))</f>
         <v>AYON, JELIAN ALICAWAY</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -15904,42 +15355,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
         <v>AZUCENAS, JURIELYN VILLAGANAS</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -15950,42 +15365,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C72), "", CONCATENATE('Class-Infos'!C72, ", ", 'Class-Infos'!D72, " ", 'Class-Infos'!E72))</f>
         <v>BAGUIO, ELMIRA BALANSAG</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -15996,42 +15375,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C73), "", CONCATENATE('Class-Infos'!C73, ", ", 'Class-Infos'!D73, " ", 'Class-Infos'!E73))</f>
         <v>ILUSTRICIMO, BEA CLAIRE IGNACIO</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="str">
@@ -16041,42 +15384,6 @@
       <c r="B25" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
         <v>SARDIDO, GEMMA LEE SORIANO</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16258,7 +15565,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="C2:N24 B42"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16321,42 +15628,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C10), "", CONCATENATE('Class-Infos'!C10, ", ", 'Class-Infos'!D10, " ", 'Class-Infos'!E10))</f>
         <v>ABAY ABAY, IAN JAY PARIÑAS</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -16367,42 +15638,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C11), "", CONCATENATE('Class-Infos'!C11, ", ", 'Class-Infos'!D11, " ", 'Class-Infos'!E11))</f>
         <v>ABEJERO, JUSTINE SAGUION</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -16413,42 +15648,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C12), "", CONCATENATE('Class-Infos'!C12, ", ", 'Class-Infos'!D12, " ", 'Class-Infos'!E12))</f>
         <v>ACOSTA, JOHNCARLO ANION</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -16459,42 +15658,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C13), "", CONCATENATE('Class-Infos'!C13, ", ", 'Class-Infos'!D13, " ", 'Class-Infos'!E13))</f>
         <v>ACOSTA, SHAMERAINE</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -16505,42 +15668,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C14), "", CONCATENATE('Class-Infos'!C14, ", ", 'Class-Infos'!D14, " ", 'Class-Infos'!E14))</f>
         <v>AGUS, ALMOND RAPHAEL JALBAY</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -16551,42 +15678,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
         <v>ALEJANDRO, JEREMY LOPEZ</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -16597,42 +15688,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C16), "", CONCATENATE('Class-Infos'!C16, ", ", 'Class-Infos'!D16, " ", 'Class-Infos'!E16))</f>
         <v>ALEJANDRO, MARK AGBUYA</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -16643,42 +15698,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C17), "", CONCATENATE('Class-Infos'!C17, ", ", 'Class-Infos'!D17, " ", 'Class-Infos'!E17))</f>
         <v>ALETER, JHAYMHARK BOLANOS</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -16689,42 +15708,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C18), "", CONCATENATE('Class-Infos'!C18, ", ", 'Class-Infos'!D18, " ", 'Class-Infos'!E18))</f>
         <v>ALUNDE, LUCKY LUIS YAMSON</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -16735,42 +15718,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C19), "", CONCATENATE('Class-Infos'!C19, ", ", 'Class-Infos'!D19, " ", 'Class-Infos'!E19))</f>
         <v>AMACIO, KHURT RANIEN RANIEN</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -16781,42 +15728,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C20), "", CONCATENATE('Class-Infos'!C20, ", ", 'Class-Infos'!D20, " ", 'Class-Infos'!E20))</f>
         <v>ANDALIS, JIBBY ABUZO</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -16827,42 +15738,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE('Class-Infos'!C21, ", ", 'Class-Infos'!D21, " ", 'Class-Infos'!E21))</f>
         <v>ANDO, PRINCE IVAN REPUYA</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -16873,42 +15748,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
         <v>ARCEO, JOHNKENNETH MACASINAG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -16919,42 +15758,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C23), "", CONCATENATE('Class-Infos'!C23, ", ", 'Class-Infos'!D23, " ", 'Class-Infos'!E23))</f>
         <v>ARESGADO, CHRISTIAN MACKY MANUEL</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -16965,42 +15768,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C24), "", CONCATENATE('Class-Infos'!C24, ", ", 'Class-Infos'!D24, " ", 'Class-Infos'!E24))</f>
         <v>ARROYO, AGA CEAZAR CAPALARAN</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -17011,42 +15778,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C25), "", CONCATENATE('Class-Infos'!C25, ", ", 'Class-Infos'!D25, " ", 'Class-Infos'!E25))</f>
         <v>ASURTO, PRINCE JHADE JEROSO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -17057,42 +15788,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C26), "", CONCATENATE('Class-Infos'!C26, ", ", 'Class-Infos'!D26, " ", 'Class-Infos'!E26))</f>
         <v>AUSTRIA, JAMES BRYAN DIZON</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -17103,42 +15798,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE('Class-Infos'!C27, ", ", 'Class-Infos'!D27, " ", 'Class-Infos'!E27))</f>
         <v>AVILA, JOB OCFEMIA</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -17149,42 +15808,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C28), "", CONCATENATE('Class-Infos'!C28, ", ", 'Class-Infos'!D28, " ", 'Class-Infos'!E28))</f>
         <v>AYON, JUSTINE DELLA</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -17195,42 +15818,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C29), "", CONCATENATE('Class-Infos'!C29, ", ", 'Class-Infos'!D29, " ", 'Class-Infos'!E29))</f>
         <v>AYOP, WESLEY MICHEN BALBUENA</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -17241,42 +15828,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
         <v>AZARCON, JOHN CEDRICK CORTEZ</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -17287,42 +15838,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C31), "", CONCATENATE('Class-Infos'!C31, ", ", 'Class-Infos'!D31, " ", 'Class-Infos'!E31))</f>
         <v>AZORES, JOSHUA SELERIO</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -17332,42 +15847,6 @@
       <c r="B24" s="5" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C32), "", CONCATENATE('Class-Infos'!C32, ", ", 'Class-Infos'!D32, " ", 'Class-Infos'!E32))</f>
         <v>BACLAAN, JOVERT MATA</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17559,7 +16038,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="1" sqref="C2:N24 B29"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17622,42 +16101,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C51), "", CONCATENATE('Class-Infos'!C51, ", ", 'Class-Infos'!D51, " ", 'Class-Infos'!E51))</f>
         <v>ABELINDE, LEIRA MAE LEGASPI</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
@@ -17668,42 +16111,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C52), "", CONCATENATE('Class-Infos'!C52, ", ", 'Class-Infos'!D52, " ", 'Class-Infos'!E52))</f>
         <v>ABOT, ALISSA KAYL CUSTODIO</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
@@ -17714,42 +16121,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C53), "", CONCATENATE('Class-Infos'!C53, ", ", 'Class-Infos'!D53, " ", 'Class-Infos'!E53))</f>
         <v>ADONA, PRINCESS LUMAWIG</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -17760,42 +16131,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C54), "", CONCATENATE('Class-Infos'!C54, ", ", 'Class-Infos'!D54, " ", 'Class-Infos'!E54))</f>
         <v>AGAM, AIZEN CHING</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>96</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -17806,42 +16141,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C55), "", CONCATENATE('Class-Infos'!C55, ", ", 'Class-Infos'!D55, " ", 'Class-Infos'!E55))</f>
         <v>AGUTAYA, DOREEN FAJARDO</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>91</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
@@ -17852,42 +16151,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C56), "", CONCATENATE('Class-Infos'!C56, ", ", 'Class-Infos'!D56, " ", 'Class-Infos'!E56))</f>
         <v>ALANANO, XYRIE LOUISE GRATA</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>91</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
@@ -17898,42 +16161,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C57), "", CONCATENATE('Class-Infos'!C57, ", ", 'Class-Infos'!D57, " ", 'Class-Infos'!E57))</f>
         <v>ALBAO, PRISCILA JOY APALIT</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
@@ -17944,42 +16171,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES FACTOR</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -17990,42 +16181,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
@@ -18036,42 +16191,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C60), "", CONCATENATE('Class-Infos'!C60, ", ", 'Class-Infos'!D60, " ", 'Class-Infos'!E60))</f>
         <v>ALCANTARA, ZYLEE ANGELA MATILLANO</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -18082,42 +16201,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C61), "", CONCATENATE('Class-Infos'!C61, ", ", 'Class-Infos'!D61, " ", 'Class-Infos'!E61))</f>
         <v>ALCAZARIN, JILLIANE FLORES</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
@@ -18128,42 +16211,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
         <v>AMBULO, PRINCESS ANNE BASILIO</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
@@ -18174,42 +16221,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C63), "", CONCATENATE('Class-Infos'!C63, ", ", 'Class-Infos'!D63, " ", 'Class-Infos'!E63))</f>
         <v>APOCAY, MA LORRIENE PATAUEG</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
@@ -18220,42 +16231,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C64), "", CONCATENATE('Class-Infos'!C64, ", ", 'Class-Infos'!D64, " ", 'Class-Infos'!E64))</f>
         <v>ARANDA, MARY ANGEL PILARCA</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
@@ -18266,42 +16241,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
         <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
@@ -18312,42 +16251,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C66), "", CONCATENATE('Class-Infos'!C66, ", ", 'Class-Infos'!D66, " ", 'Class-Infos'!E66))</f>
         <v>AREVALO, MA GLAIZA CAMERO</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
@@ -18358,42 +16261,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C67), "", CONCATENATE('Class-Infos'!C67, ", ", 'Class-Infos'!D67, " ", 'Class-Infos'!E67))</f>
         <v>ATCHOCO, CHRISTINE NARCISO</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
@@ -18404,42 +16271,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
         <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>85</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
@@ -18450,42 +16281,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C69), "", CONCATENATE('Class-Infos'!C69, ", ", 'Class-Infos'!D69, " ", 'Class-Infos'!E69))</f>
         <v>AXALAN, PRINCESS CUALES</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
@@ -18496,42 +16291,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C70), "", CONCATENATE('Class-Infos'!C70, ", ", 'Class-Infos'!D70, " ", 'Class-Infos'!E70))</f>
         <v>AYON, JELIAN ALICAWAY</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
@@ -18542,42 +16301,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
         <v>AZUCENAS, JURIELYN VILLAGANAS</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
@@ -18588,42 +16311,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C72), "", CONCATENATE('Class-Infos'!C72, ", ", 'Class-Infos'!D72, " ", 'Class-Infos'!E72))</f>
         <v>BAGUIO, ELMIRA BALANSAG</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
@@ -18634,42 +16321,6 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C73), "", CONCATENATE('Class-Infos'!C73, ", ", 'Class-Infos'!D73, " ", 'Class-Infos'!E73))</f>
         <v>ILUSTRICIMO, BEA CLAIRE IGNACIO</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="str">
@@ -18679,42 +16330,6 @@
       <c r="B25" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
         <v>SARDIDO, GEMMA LEE SORIANO</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ecard-infos.xlsx
+++ b/ecard-infos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Class-Infos" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="248">
   <si>
     <t xml:space="preserve">Adviser’s Name </t>
   </si>
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t xml:space="preserve">JURIELYN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLAGANAS</t>
   </si>
   <si>
     <t xml:space="preserve">BAGUIO</t>
@@ -962,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="M13:N13 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1552,6 +1549,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>24</v>
@@ -2219,9 +2226,6 @@
       <c r="D71" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="F71" s="2" t="str">
         <f aca="false">IF(ISBLANK(C71), "", "FEMALE")</f>
         <v>FEMALE</v>
@@ -2238,13 +2242,13 @@
         <v>136514120100</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="E72" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="F72" s="2" t="str">
         <f aca="false">IF(ISBLANK(C72), "", "FEMALE")</f>
@@ -2262,13 +2266,13 @@
         <v>106499130010</v>
       </c>
       <c r="C73" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="E73" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="F73" s="2" t="str">
         <f aca="false">IF(ISBLANK(C73), "", "FEMALE")</f>
@@ -2286,13 +2290,13 @@
         <v>136829110055</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="E74" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="F74" s="2" t="str">
         <f aca="false">IF(ISBLANK(C74), "", "FEMALE")</f>
@@ -2465,7 +2469,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="M13:N13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2477,46 +2481,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,7 +2942,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="M13:N13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2950,46 +2954,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,7 +3203,7 @@
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,7 +3415,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X3" activeCellId="1" sqref="M13:N13 X3"/>
+      <selection pane="topLeft" activeCell="X3" activeCellId="0" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3450,94 +3454,94 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,11 +3961,11 @@
       </c>
       <c r="M5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!M5="", "", VLOOKUP('Compute-Values-Male'!M5, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!N5="", "", VLOOKUP('Compute-Values-Male'!N5, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="O5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!O5="", "", VLOOKUP('Compute-Values-Male'!O5, values_lookup, 3, 1))</f>
@@ -3969,7 +3973,7 @@
       </c>
       <c r="P5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!P5="", "", VLOOKUP('Compute-Values-Male'!P5, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="Q5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!Q5="", "", VLOOKUP('Compute-Values-Male'!Q5, values_lookup, 3, 1))</f>
@@ -3977,27 +3981,27 @@
       </c>
       <c r="R5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!R5="", "", VLOOKUP('Compute-Values-Male'!R5, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="S5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!S5="", "", VLOOKUP('Compute-Values-Male'!S5, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="T5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T5="", "", VLOOKUP('Compute-Values-Male'!T5, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U5="", "", VLOOKUP('Compute-Values-Male'!U5, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="V5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V5="", "", VLOOKUP('Compute-Values-Male'!V5, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="W5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W5="", "", VLOOKUP('Compute-Values-Male'!W5, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X5" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X5="", "", VLOOKUP('Compute-Values-Male'!X5, values_lookup, 3, 1))</f>
@@ -4161,7 +4165,7 @@
       </c>
       <c r="C7" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!C7="", "", VLOOKUP('Compute-Values-Male'!C7, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="D7" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!D7="", "", VLOOKUP('Compute-Values-Male'!D7, values_lookup, 3, 1))</f>
@@ -4201,11 +4205,11 @@
       </c>
       <c r="M7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!M7="", "", VLOOKUP('Compute-Values-Male'!M7, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!N7="", "", VLOOKUP('Compute-Values-Male'!N7, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="O7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!O7="", "", VLOOKUP('Compute-Values-Male'!O7, values_lookup, 3, 1))</f>
@@ -4229,19 +4233,19 @@
       </c>
       <c r="T7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T7="", "", VLOOKUP('Compute-Values-Male'!T7, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U7="", "", VLOOKUP('Compute-Values-Male'!U7, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="V7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V7="", "", VLOOKUP('Compute-Values-Male'!V7, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="W7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W7="", "", VLOOKUP('Compute-Values-Male'!W7, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X7" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X7="", "", VLOOKUP('Compute-Values-Male'!X7, values_lookup, 3, 1))</f>
@@ -4323,11 +4327,11 @@
       </c>
       <c r="M8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!M8="", "", VLOOKUP('Compute-Values-Male'!M8, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!N8="", "", VLOOKUP('Compute-Values-Male'!N8, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="O8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!O8="", "", VLOOKUP('Compute-Values-Male'!O8, values_lookup, 3, 1))</f>
@@ -4351,19 +4355,19 @@
       </c>
       <c r="T8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T8="", "", VLOOKUP('Compute-Values-Male'!T8, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U8="", "", VLOOKUP('Compute-Values-Male'!U8, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="V8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V8="", "", VLOOKUP('Compute-Values-Male'!V8, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="W8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W8="", "", VLOOKUP('Compute-Values-Male'!W8, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X8" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X8="", "", VLOOKUP('Compute-Values-Male'!X8, values_lookup, 3, 1))</f>
@@ -4567,11 +4571,11 @@
       </c>
       <c r="M10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!M10="", "", VLOOKUP('Compute-Values-Male'!M10, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!N10="", "", VLOOKUP('Compute-Values-Male'!N10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="O10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!O10="", "", VLOOKUP('Compute-Values-Male'!O10, values_lookup, 3, 1))</f>
@@ -4595,19 +4599,19 @@
       </c>
       <c r="T10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T10="", "", VLOOKUP('Compute-Values-Male'!T10, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U10="", "", VLOOKUP('Compute-Values-Male'!U10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="V10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V10="", "", VLOOKUP('Compute-Values-Male'!V10, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>SO</v>
       </c>
       <c r="W10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W10="", "", VLOOKUP('Compute-Values-Male'!W10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X10="", "", VLOOKUP('Compute-Values-Male'!X10, values_lookup, 3, 1))</f>
@@ -4665,7 +4669,7 @@
       </c>
       <c r="G11" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!G11="", "", VLOOKUP('Compute-Values-Male'!G11, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H11" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!H11="", "", VLOOKUP('Compute-Values-Male'!H11, values_lookup, 3, 1))</f>
@@ -4689,11 +4693,11 @@
       </c>
       <c r="M11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!M11="", "", VLOOKUP('Compute-Values-Male'!M11, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!N11="", "", VLOOKUP('Compute-Values-Male'!N11, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="O11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!O11="", "", VLOOKUP('Compute-Values-Male'!O11, values_lookup, 3, 1))</f>
@@ -4717,11 +4721,11 @@
       </c>
       <c r="T11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T11="", "", VLOOKUP('Compute-Values-Male'!T11, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U11="", "", VLOOKUP('Compute-Values-Male'!U11, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="V11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V11="", "", VLOOKUP('Compute-Values-Male'!V11, values_lookup, 3, 1))</f>
@@ -4729,7 +4733,7 @@
       </c>
       <c r="W11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W11="", "", VLOOKUP('Compute-Values-Male'!W11, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X11" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X11="", "", VLOOKUP('Compute-Values-Male'!X11, values_lookup, 3, 1))</f>
@@ -4949,7 +4953,7 @@
       </c>
       <c r="Q13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!Q13="", "", VLOOKUP('Compute-Values-Male'!Q13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="R13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!R13="", "", VLOOKUP('Compute-Values-Male'!R13, values_lookup, 3, 1))</f>
@@ -4973,7 +4977,7 @@
       </c>
       <c r="W13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W13="", "", VLOOKUP('Compute-Values-Male'!W13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X13="", "", VLOOKUP('Compute-Values-Male'!X13, values_lookup, 3, 1))</f>
@@ -5015,7 +5019,7 @@
       </c>
       <c r="C14" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!C14="", "", VLOOKUP('Compute-Values-Male'!C14, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="D14" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!D14="", "", VLOOKUP('Compute-Values-Male'!D14, values_lookup, 3, 1))</f>
@@ -5641,7 +5645,7 @@
       </c>
       <c r="G19" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!G19="", "", VLOOKUP('Compute-Values-Male'!G19, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H19" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!H19="", "", VLOOKUP('Compute-Values-Male'!H19, values_lookup, 3, 1))</f>
@@ -5665,15 +5669,15 @@
       </c>
       <c r="M19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!M19="", "", VLOOKUP('Compute-Values-Male'!M19, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!N19="", "", VLOOKUP('Compute-Values-Male'!N19, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="O19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!O19="", "", VLOOKUP('Compute-Values-Male'!O19, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="P19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!P19="", "", VLOOKUP('Compute-Values-Male'!P19, values_lookup, 3, 1))</f>
@@ -5681,7 +5685,7 @@
       </c>
       <c r="Q19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!Q19="", "", VLOOKUP('Compute-Values-Male'!Q19, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="R19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!R19="", "", VLOOKUP('Compute-Values-Male'!R19, values_lookup, 3, 1))</f>
@@ -5697,7 +5701,7 @@
       </c>
       <c r="U19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U19="", "", VLOOKUP('Compute-Values-Male'!U19, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="V19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V19="", "", VLOOKUP('Compute-Values-Male'!V19, values_lookup, 3, 1))</f>
@@ -5705,7 +5709,7 @@
       </c>
       <c r="W19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W19="", "", VLOOKUP('Compute-Values-Male'!W19, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X19="", "", VLOOKUP('Compute-Values-Male'!X19, values_lookup, 3, 1))</f>
@@ -5763,7 +5767,7 @@
       </c>
       <c r="G20" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!G20="", "", VLOOKUP('Compute-Values-Male'!G20, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H20" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!H20="", "", VLOOKUP('Compute-Values-Male'!H20, values_lookup, 3, 1))</f>
@@ -5815,19 +5819,19 @@
       </c>
       <c r="T20" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T20="", "", VLOOKUP('Compute-Values-Male'!T20, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U20" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U20="", "", VLOOKUP('Compute-Values-Male'!U20, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="V20" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V20="", "", VLOOKUP('Compute-Values-Male'!V20, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="W20" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W20="", "", VLOOKUP('Compute-Values-Male'!W20, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X20" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X20="", "", VLOOKUP('Compute-Values-Male'!X20, values_lookup, 3, 1))</f>
@@ -5881,11 +5885,11 @@
       </c>
       <c r="F21" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!F21="", "", VLOOKUP('Compute-Values-Male'!F21, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="G21" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!G21="", "", VLOOKUP('Compute-Values-Male'!G21, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H21" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!H21="", "", VLOOKUP('Compute-Values-Male'!H21, values_lookup, 3, 1))</f>
@@ -5937,11 +5941,11 @@
       </c>
       <c r="T21" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T21="", "", VLOOKUP('Compute-Values-Male'!T21, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U21" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U21="", "", VLOOKUP('Compute-Values-Male'!U21, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="V21" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V21="", "", VLOOKUP('Compute-Values-Male'!V21, values_lookup, 3, 1))</f>
@@ -5949,7 +5953,7 @@
       </c>
       <c r="W21" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!W21="", "", VLOOKUP('Compute-Values-Male'!W21, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X21" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!X21="", "", VLOOKUP('Compute-Values-Male'!X21, values_lookup, 3, 1))</f>
@@ -5991,7 +5995,7 @@
       </c>
       <c r="C22" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!C22="", "", VLOOKUP('Compute-Values-Male'!C22, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="D22" s="8" t="str">
         <f aca="false">IF('Compute-Values-Male'!D22="", "", VLOOKUP('Compute-Values-Male'!D22, values_lookup, 3, 1))</f>
@@ -6059,11 +6063,11 @@
       </c>
       <c r="T22" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!T22="", "", VLOOKUP('Compute-Values-Male'!T22, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>SO</v>
       </c>
       <c r="U22" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!U22="", "", VLOOKUP('Compute-Values-Male'!U22, values_lookup, 3, 1))</f>
-        <v/>
+        <v>AO</v>
       </c>
       <c r="V22" s="9" t="str">
         <f aca="false">IF('Compute-Values-Male'!V22="", "", VLOOKUP('Compute-Values-Male'!V22, values_lookup, 3, 1))</f>
@@ -8439,7 +8443,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE30" activeCellId="1" sqref="M13:N13 AE30"/>
+      <selection pane="topLeft" activeCell="AE30" activeCellId="0" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8478,94 +8482,94 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,11 +8839,11 @@
       </c>
       <c r="F4" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!F4="", "", VLOOKUP('Compute-Values-Female'!F4, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="G4" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!G4="", "", VLOOKUP('Compute-Values-Female'!G4, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="H4" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!H4="", "", VLOOKUP('Compute-Values-Female'!H4, values_lookup, 3, 1))</f>
@@ -9433,7 +9437,7 @@
       </c>
       <c r="C9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!C9="", "", VLOOKUP('Compute-Values-Female'!C9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="D9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!D9="", "", VLOOKUP('Compute-Values-Female'!D9, values_lookup, 3, 1))</f>
@@ -9449,7 +9453,7 @@
       </c>
       <c r="G9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!G9="", "", VLOOKUP('Compute-Values-Female'!G9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!H9="", "", VLOOKUP('Compute-Values-Female'!H9, values_lookup, 3, 1))</f>
@@ -9457,7 +9461,7 @@
       </c>
       <c r="I9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!I9="", "", VLOOKUP('Compute-Values-Female'!I9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="J9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!J9="", "", VLOOKUP('Compute-Values-Female'!J9, values_lookup, 3, 1))</f>
@@ -9465,11 +9469,11 @@
       </c>
       <c r="K9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!K9="", "", VLOOKUP('Compute-Values-Female'!K9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="L9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!L9="", "", VLOOKUP('Compute-Values-Female'!L9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="M9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!M9="", "", VLOOKUP('Compute-Values-Female'!M9, values_lookup, 3, 1))</f>
@@ -9477,35 +9481,35 @@
       </c>
       <c r="N9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!N9="", "", VLOOKUP('Compute-Values-Female'!N9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="O9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!O9="", "", VLOOKUP('Compute-Values-Female'!O9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="P9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!P9="", "", VLOOKUP('Compute-Values-Female'!P9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="Q9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!Q9="", "", VLOOKUP('Compute-Values-Female'!Q9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="R9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!R9="", "", VLOOKUP('Compute-Values-Female'!R9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="S9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!S9="", "", VLOOKUP('Compute-Values-Female'!S9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="T9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T9="", "", VLOOKUP('Compute-Values-Female'!T9, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!U9="", "", VLOOKUP('Compute-Values-Female'!U9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="V9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!V9="", "", VLOOKUP('Compute-Values-Female'!V9, values_lookup, 3, 1))</f>
@@ -9513,7 +9517,7 @@
       </c>
       <c r="W9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!W9="", "", VLOOKUP('Compute-Values-Female'!W9, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X9" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!X9="", "", VLOOKUP('Compute-Values-Female'!X9, values_lookup, 3, 1))</f>
@@ -9555,11 +9559,11 @@
       </c>
       <c r="C10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!C10="", "", VLOOKUP('Compute-Values-Female'!C10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="D10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!D10="", "", VLOOKUP('Compute-Values-Female'!D10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="E10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!E10="", "", VLOOKUP('Compute-Values-Female'!E10, values_lookup, 3, 1))</f>
@@ -9567,11 +9571,11 @@
       </c>
       <c r="F10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!F10="", "", VLOOKUP('Compute-Values-Female'!F10, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="G10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!G10="", "", VLOOKUP('Compute-Values-Female'!G10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!H10="", "", VLOOKUP('Compute-Values-Female'!H10, values_lookup, 3, 1))</f>
@@ -9587,23 +9591,23 @@
       </c>
       <c r="K10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!K10="", "", VLOOKUP('Compute-Values-Female'!K10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="L10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!L10="", "", VLOOKUP('Compute-Values-Female'!L10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="M10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!M10="", "", VLOOKUP('Compute-Values-Female'!M10, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!N10="", "", VLOOKUP('Compute-Values-Female'!N10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="O10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!O10="", "", VLOOKUP('Compute-Values-Female'!O10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="P10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!P10="", "", VLOOKUP('Compute-Values-Female'!P10, values_lookup, 3, 1))</f>
@@ -9615,19 +9619,19 @@
       </c>
       <c r="R10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!R10="", "", VLOOKUP('Compute-Values-Female'!R10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="S10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!S10="", "", VLOOKUP('Compute-Values-Female'!S10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="T10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T10="", "", VLOOKUP('Compute-Values-Female'!T10, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!U10="", "", VLOOKUP('Compute-Values-Female'!U10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="V10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!V10="", "", VLOOKUP('Compute-Values-Female'!V10, values_lookup, 3, 1))</f>
@@ -9635,7 +9639,7 @@
       </c>
       <c r="W10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!W10="", "", VLOOKUP('Compute-Values-Female'!W10, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X10" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!X10="", "", VLOOKUP('Compute-Values-Female'!X10, values_lookup, 3, 1))</f>
@@ -9839,11 +9843,11 @@
       </c>
       <c r="M12" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!M12="", "", VLOOKUP('Compute-Values-Female'!M12, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>SO</v>
       </c>
       <c r="N12" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!N12="", "", VLOOKUP('Compute-Values-Female'!N12, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="O12" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!O12="", "", VLOOKUP('Compute-Values-Female'!O12, values_lookup, 3, 1))</f>
@@ -9921,7 +9925,7 @@
       </c>
       <c r="C13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!C13="", "", VLOOKUP('Compute-Values-Female'!C13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="D13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!D13="", "", VLOOKUP('Compute-Values-Female'!D13, values_lookup, 3, 1))</f>
@@ -9933,11 +9937,11 @@
       </c>
       <c r="F13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!F13="", "", VLOOKUP('Compute-Values-Female'!F13, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="G13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!G13="", "", VLOOKUP('Compute-Values-Female'!G13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!H13="", "", VLOOKUP('Compute-Values-Female'!H13, values_lookup, 3, 1))</f>
@@ -9961,15 +9965,15 @@
       </c>
       <c r="M13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!M13="", "", VLOOKUP('Compute-Values-Female'!M13, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!N13="", "", VLOOKUP('Compute-Values-Female'!N13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="O13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!O13="", "", VLOOKUP('Compute-Values-Female'!O13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="P13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!P13="", "", VLOOKUP('Compute-Values-Female'!P13, values_lookup, 3, 1))</f>
@@ -9985,7 +9989,7 @@
       </c>
       <c r="S13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!S13="", "", VLOOKUP('Compute-Values-Female'!S13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="T13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T13="", "", VLOOKUP('Compute-Values-Female'!T13, values_lookup, 3, 1))</f>
@@ -9993,7 +9997,7 @@
       </c>
       <c r="U13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!U13="", "", VLOOKUP('Compute-Values-Female'!U13, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="V13" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!V13="", "", VLOOKUP('Compute-Values-Female'!V13, values_lookup, 3, 1))</f>
@@ -10233,19 +10237,19 @@
       </c>
       <c r="T15" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T15="", "", VLOOKUP('Compute-Values-Female'!T15, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U15" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!U15="", "", VLOOKUP('Compute-Values-Female'!U15, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="V15" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!V15="", "", VLOOKUP('Compute-Values-Female'!V15, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="W15" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!W15="", "", VLOOKUP('Compute-Values-Female'!W15, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X15" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!X15="", "", VLOOKUP('Compute-Values-Female'!X15, values_lookup, 3, 1))</f>
@@ -10287,7 +10291,7 @@
       </c>
       <c r="C16" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!C16="", "", VLOOKUP('Compute-Values-Female'!C16, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="D16" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!D16="", "", VLOOKUP('Compute-Values-Female'!D16, values_lookup, 3, 1))</f>
@@ -10355,11 +10359,11 @@
       </c>
       <c r="T16" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T16="", "", VLOOKUP('Compute-Values-Female'!T16, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="U16" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!U16="", "", VLOOKUP('Compute-Values-Female'!U16, values_lookup, 3, 1))</f>
-        <v/>
+        <v>SO</v>
       </c>
       <c r="V16" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!V16="", "", VLOOKUP('Compute-Values-Female'!V16, values_lookup, 3, 1))</f>
@@ -10543,11 +10547,11 @@
       </c>
       <c r="F18" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!F18="", "", VLOOKUP('Compute-Values-Female'!F18, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="G18" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!G18="", "", VLOOKUP('Compute-Values-Female'!G18, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="H18" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!H18="", "", VLOOKUP('Compute-Values-Female'!H18, values_lookup, 3, 1))</f>
@@ -10653,7 +10657,7 @@
       </c>
       <c r="C19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!C19="", "", VLOOKUP('Compute-Values-Female'!C19, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="D19" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!D19="", "", VLOOKUP('Compute-Values-Female'!D19, values_lookup, 3, 1))</f>
@@ -10807,7 +10811,7 @@
       </c>
       <c r="K20" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!K20="", "", VLOOKUP('Compute-Values-Female'!K20, values_lookup, 3, 1))</f>
-        <v>SO</v>
+        <v>AO</v>
       </c>
       <c r="L20" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!L20="", "", VLOOKUP('Compute-Values-Female'!L20, values_lookup, 3, 1))</f>
@@ -11015,7 +11019,7 @@
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
       <c r="C22" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!C22="", "", VLOOKUP('Compute-Values-Female'!C22, values_lookup, 3, 1))</f>
@@ -11079,11 +11083,11 @@
       </c>
       <c r="R22" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!R22="", "", VLOOKUP('Compute-Values-Female'!R22, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="S22" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!S22="", "", VLOOKUP('Compute-Values-Female'!S22, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="T22" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T22="", "", VLOOKUP('Compute-Values-Female'!T22, values_lookup, 3, 1))</f>
@@ -11173,7 +11177,7 @@
       </c>
       <c r="K23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!K23="", "", VLOOKUP('Compute-Values-Female'!K23, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="L23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!L23="", "", VLOOKUP('Compute-Values-Female'!L23, values_lookup, 3, 1))</f>
@@ -11181,11 +11185,11 @@
       </c>
       <c r="M23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!M23="", "", VLOOKUP('Compute-Values-Female'!M23, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="N23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!N23="", "", VLOOKUP('Compute-Values-Female'!N23, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="O23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!O23="", "", VLOOKUP('Compute-Values-Female'!O23, values_lookup, 3, 1))</f>
@@ -11201,11 +11205,11 @@
       </c>
       <c r="R23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!R23="", "", VLOOKUP('Compute-Values-Female'!R23, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="S23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!S23="", "", VLOOKUP('Compute-Values-Female'!S23, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="T23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T23="", "", VLOOKUP('Compute-Values-Female'!T23, values_lookup, 3, 1))</f>
@@ -11213,7 +11217,7 @@
       </c>
       <c r="U23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!U23="", "", VLOOKUP('Compute-Values-Female'!U23, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="V23" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!V23="", "", VLOOKUP('Compute-Values-Female'!V23, values_lookup, 3, 1))</f>
@@ -11385,11 +11389,11 @@
       </c>
       <c r="C25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!C25="", "", VLOOKUP('Compute-Values-Female'!C25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="D25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!D25="", "", VLOOKUP('Compute-Values-Female'!D25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="E25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!E25="", "", VLOOKUP('Compute-Values-Female'!E25, values_lookup, 3, 1))</f>
@@ -11397,11 +11401,11 @@
       </c>
       <c r="F25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!F25="", "", VLOOKUP('Compute-Values-Female'!F25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="G25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!G25="", "", VLOOKUP('Compute-Values-Female'!G25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="H25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!H25="", "", VLOOKUP('Compute-Values-Female'!H25, values_lookup, 3, 1))</f>
@@ -11425,7 +11429,7 @@
       </c>
       <c r="M25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!M25="", "", VLOOKUP('Compute-Values-Female'!M25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="N25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!N25="", "", VLOOKUP('Compute-Values-Female'!N25, values_lookup, 3, 1))</f>
@@ -11449,7 +11453,7 @@
       </c>
       <c r="S25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!S25="", "", VLOOKUP('Compute-Values-Female'!S25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="T25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!T25="", "", VLOOKUP('Compute-Values-Female'!T25, values_lookup, 3, 1))</f>
@@ -11457,15 +11461,15 @@
       </c>
       <c r="U25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!U25="", "", VLOOKUP('Compute-Values-Female'!U25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>RO</v>
       </c>
       <c r="V25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!V25="", "", VLOOKUP('Compute-Values-Female'!V25, values_lookup, 3, 1))</f>
-        <v>NO</v>
+        <v>RO</v>
       </c>
       <c r="W25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!W25="", "", VLOOKUP('Compute-Values-Female'!W25, values_lookup, 3, 1))</f>
-        <v/>
+        <v>NO</v>
       </c>
       <c r="X25" s="9" t="str">
         <f aca="false">IF('Compute-Values-Female'!X25="", "", VLOOKUP('Compute-Values-Female'!X25, values_lookup, 3, 1))</f>
@@ -13467,7 +13471,7 @@
   <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="M13:N13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13506,48 +13510,48 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14338,7 +14342,7 @@
   <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="M13:N13 C1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14377,48 +14381,48 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14948,7 +14952,7 @@
       </c>
       <c r="B23" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
@@ -15228,7 +15232,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="X28" activeCellId="1" sqref="M13:N13 X28"/>
+      <selection pane="bottomRight" activeCell="X28" activeCellId="0" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15267,94 +15271,94 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15774,11 +15778,11 @@
       </c>
       <c r="M5" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!F5="", "", ROUND(('2nd-Summary-Male'!F5+'2nd-Summary-Male'!G5)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="N5" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="N5" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!G5="", "", ROUND(('2nd-Summary-Male'!G5+'2nd-Summary-Male'!H5)/2, 0))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="O5" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!H5="", "", ROUND(('2nd-Summary-Male'!H5+'2nd-Summary-Male'!I5)/2, 0))</f>
@@ -15786,7 +15790,7 @@
       </c>
       <c r="P5" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!I5="", "", ROUND(('2nd-Summary-Male'!I5+'2nd-Summary-Male'!J5)/2, 0))</f>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!C5="", "", ROUND(('3rd-Summary-Male'!C5+'3rd-Summary-Male'!D5)/2, 0))</f>
@@ -15794,27 +15798,27 @@
       </c>
       <c r="R5" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!D5="", "", ROUND(('3rd-Summary-Male'!D5+'3rd-Summary-Male'!E5)/2, 0))</f>
-        <v>40</v>
-      </c>
-      <c r="S5" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="S5" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!E5="", "", ROUND(('3rd-Summary-Male'!E5+'3rd-Summary-Male'!F5)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="T5" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F5="", "", ROUND(('3rd-Summary-Male'!F5+'3rd-Summary-Male'!G5)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U5" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="U5" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G5="", "", ROUND(('3rd-Summary-Male'!G5+'3rd-Summary-Male'!H5)/2, 0))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="V5" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H5="", "", ROUND(('3rd-Summary-Male'!H5+'3rd-Summary-Male'!I5)/2, 0))</f>
-        <v>42</v>
-      </c>
-      <c r="W5" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="W5" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I5="", "", ROUND(('3rd-Summary-Male'!I5+'3rd-Summary-Male'!J5)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X5" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C5="", "", ROUND(('4th-Summary-Male'!C5+'4th-Summary-Male'!D5)/2, 0))</f>
@@ -15976,9 +15980,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
         <v>ALEJANDRO, MARK AGBUYA</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!C7="", "", ROUND(('1st-Summary-Male'!C7+'1st-Summary-Male'!D7)/2, 0))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!D7="", "", ROUND(('1st-Summary-Male'!D7+'1st-Summary-Male'!E7)/2, 0))</f>
@@ -16018,11 +16022,11 @@
       </c>
       <c r="M7" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!F7="", "", ROUND(('2nd-Summary-Male'!F7+'2nd-Summary-Male'!G7)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="N7" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="N7" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!G7="", "", ROUND(('2nd-Summary-Male'!G7+'2nd-Summary-Male'!H7)/2, 0))</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="O7" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!H7="", "", ROUND(('2nd-Summary-Male'!H7+'2nd-Summary-Male'!I7)/2, 0))</f>
@@ -16030,7 +16034,7 @@
       </c>
       <c r="P7" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!I7="", "", ROUND(('2nd-Summary-Male'!I7+'2nd-Summary-Male'!J7)/2, 0))</f>
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!C7="", "", ROUND(('3rd-Summary-Male'!C7+'3rd-Summary-Male'!D7)/2, 0))</f>
@@ -16046,19 +16050,19 @@
       </c>
       <c r="T7" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F7="", "", ROUND(('3rd-Summary-Male'!F7+'3rd-Summary-Male'!G7)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U7" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="U7" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G7="", "", ROUND(('3rd-Summary-Male'!G7+'3rd-Summary-Male'!H7)/2, 0))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="V7" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H7="", "", ROUND(('3rd-Summary-Male'!H7+'3rd-Summary-Male'!I7)/2, 0))</f>
-        <v>42</v>
-      </c>
-      <c r="W7" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="W7" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I7="", "", ROUND(('3rd-Summary-Male'!I7+'3rd-Summary-Male'!J7)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X7" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C7="", "", ROUND(('4th-Summary-Male'!C7+'4th-Summary-Male'!D7)/2, 0))</f>
@@ -16140,11 +16144,11 @@
       </c>
       <c r="M8" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!F8="", "", ROUND(('2nd-Summary-Male'!F8+'2nd-Summary-Male'!G8)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="N8" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="N8" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!G8="", "", ROUND(('2nd-Summary-Male'!G8+'2nd-Summary-Male'!H8)/2, 0))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="O8" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!H8="", "", ROUND(('2nd-Summary-Male'!H8+'2nd-Summary-Male'!I8)/2, 0))</f>
@@ -16168,19 +16172,19 @@
       </c>
       <c r="T8" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F8="", "", ROUND(('3rd-Summary-Male'!F8+'3rd-Summary-Male'!G8)/2, 0))</f>
-        <v>40</v>
-      </c>
-      <c r="U8" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="U8" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G8="", "", ROUND(('3rd-Summary-Male'!G8+'3rd-Summary-Male'!H8)/2, 0))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="V8" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H8="", "", ROUND(('3rd-Summary-Male'!H8+'3rd-Summary-Male'!I8)/2, 0))</f>
-        <v>42</v>
-      </c>
-      <c r="W8" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="W8" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I8="", "", ROUND(('3rd-Summary-Male'!I8+'3rd-Summary-Male'!J8)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X8" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C8="", "", ROUND(('4th-Summary-Male'!C8+'4th-Summary-Male'!D8)/2, 0))</f>
@@ -16384,11 +16388,11 @@
       </c>
       <c r="M10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!F10="", "", ROUND(('2nd-Summary-Male'!F10+'2nd-Summary-Male'!G10)/2, 0))</f>
-        <v>40</v>
-      </c>
-      <c r="N10" s="9" t="str">
+        <v>78</v>
+      </c>
+      <c r="N10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!G10="", "", ROUND(('2nd-Summary-Male'!G10+'2nd-Summary-Male'!H10)/2, 0))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="O10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!H10="", "", ROUND(('2nd-Summary-Male'!H10+'2nd-Summary-Male'!I10)/2, 0))</f>
@@ -16412,19 +16416,19 @@
       </c>
       <c r="T10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F10="", "", ROUND(('3rd-Summary-Male'!F10+'3rd-Summary-Male'!G10)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="U10" s="9" t="str">
+        <v>78</v>
+      </c>
+      <c r="U10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G10="", "", ROUND(('3rd-Summary-Male'!G10+'3rd-Summary-Male'!H10)/2, 0))</f>
-        <v/>
+        <v>84</v>
       </c>
       <c r="V10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H10="", "", ROUND(('3rd-Summary-Male'!H10+'3rd-Summary-Male'!I10)/2, 0))</f>
-        <v>45</v>
-      </c>
-      <c r="W10" s="9" t="str">
+        <v>83</v>
+      </c>
+      <c r="W10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I10="", "", ROUND(('3rd-Summary-Male'!I10+'3rd-Summary-Male'!J10)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X10" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C10="", "", ROUND(('4th-Summary-Male'!C10+'4th-Summary-Male'!D10)/2, 0))</f>
@@ -16478,11 +16482,11 @@
       </c>
       <c r="F11" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!F11="", "", ROUND(('1st-Summary-Male'!F11+'1st-Summary-Male'!G11)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="G11" s="8" t="str">
+        <v>75</v>
+      </c>
+      <c r="G11" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!G11="", "", ROUND(('1st-Summary-Male'!G11+'1st-Summary-Male'!H11)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="H11" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!H11="", "", ROUND(('1st-Summary-Male'!H11+'1st-Summary-Male'!I11)/2, 0))</f>
@@ -16506,11 +16510,11 @@
       </c>
       <c r="M11" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!F11="", "", ROUND(('2nd-Summary-Male'!F11+'2nd-Summary-Male'!G11)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="N11" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="N11" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!G11="", "", ROUND(('2nd-Summary-Male'!G11+'2nd-Summary-Male'!H11)/2, 0))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="O11" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!H11="", "", ROUND(('2nd-Summary-Male'!H11+'2nd-Summary-Male'!I11)/2, 0))</f>
@@ -16534,19 +16538,19 @@
       </c>
       <c r="T11" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F11="", "", ROUND(('3rd-Summary-Male'!F11+'3rd-Summary-Male'!G11)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U11" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="U11" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G11="", "", ROUND(('3rd-Summary-Male'!G11+'3rd-Summary-Male'!H11)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="V11" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H11="", "", ROUND(('3rd-Summary-Male'!H11+'3rd-Summary-Male'!I11)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="W11" s="9" t="str">
+        <v>74</v>
+      </c>
+      <c r="W11" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I11="", "", ROUND(('3rd-Summary-Male'!I11+'3rd-Summary-Male'!J11)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X11" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C11="", "", ROUND(('4th-Summary-Male'!C11+'4th-Summary-Male'!D11)/2, 0))</f>
@@ -16764,9 +16768,9 @@
         <f aca="false">IF('2nd-Summary-Male'!I13="", "", ROUND(('2nd-Summary-Male'!I13+'2nd-Summary-Male'!J13)/2, 0))</f>
         <v>85</v>
       </c>
-      <c r="Q13" s="9" t="str">
+      <c r="Q13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!C13="", "", ROUND(('3rd-Summary-Male'!C13+'3rd-Summary-Male'!D13)/2, 0))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="R13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!D13="", "", ROUND(('3rd-Summary-Male'!D13+'3rd-Summary-Male'!E13)/2, 0))</f>
@@ -16786,11 +16790,11 @@
       </c>
       <c r="V13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H13="", "", ROUND(('3rd-Summary-Male'!H13+'3rd-Summary-Male'!I13)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="W13" s="9" t="str">
+        <v>75</v>
+      </c>
+      <c r="W13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I13="", "", ROUND(('3rd-Summary-Male'!I13+'3rd-Summary-Male'!J13)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X13" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C13="", "", ROUND(('4th-Summary-Male'!C13+'4th-Summary-Male'!D13)/2, 0))</f>
@@ -16830,9 +16834,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
         <v>ARROYO, AGA CEAZAR CAPALARAN</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!C14="", "", ROUND(('1st-Summary-Male'!C14+'1st-Summary-Male'!D14)/2, 0))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="D14" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!D14="", "", ROUND(('1st-Summary-Male'!D14+'1st-Summary-Male'!E14)/2, 0))</f>
@@ -17124,7 +17128,7 @@
       </c>
       <c r="O16" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!H16="", "", ROUND(('2nd-Summary-Male'!H16+'2nd-Summary-Male'!I16)/2, 0))</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!I16="", "", ROUND(('2nd-Summary-Male'!I16+'2nd-Summary-Male'!J16)/2, 0))</f>
@@ -17320,11 +17324,11 @@
       </c>
       <c r="C18" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!C18="", "", ROUND(('1st-Summary-Male'!C18+'1st-Summary-Male'!D18)/2, 0))</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D18" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!D18="", "", ROUND(('1st-Summary-Male'!D18+'1st-Summary-Male'!E18)/2, 0))</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E18" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!E18="", "", ROUND(('1st-Summary-Male'!E18+'1st-Summary-Male'!F18)/2, 0))</f>
@@ -17454,11 +17458,11 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!F19="", "", ROUND(('1st-Summary-Male'!F19+'1st-Summary-Male'!G19)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="G19" s="8" t="str">
+        <v>75</v>
+      </c>
+      <c r="G19" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!G19="", "", ROUND(('1st-Summary-Male'!G19+'1st-Summary-Male'!H19)/2, 0))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="H19" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!H19="", "", ROUND(('1st-Summary-Male'!H19+'1st-Summary-Male'!I19)/2, 0))</f>
@@ -17482,23 +17486,23 @@
       </c>
       <c r="M19" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!F19="", "", ROUND(('2nd-Summary-Male'!F19+'2nd-Summary-Male'!G19)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="N19" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="N19" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!G19="", "", ROUND(('2nd-Summary-Male'!G19+'2nd-Summary-Male'!H19)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="O19" s="9" t="str">
+        <v>73</v>
+      </c>
+      <c r="O19" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!H19="", "", ROUND(('2nd-Summary-Male'!H19+'2nd-Summary-Male'!I19)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P19" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Male'!I19="", "", ROUND(('2nd-Summary-Male'!I19+'2nd-Summary-Male'!J19)/2, 0))</f>
         <v>81</v>
       </c>
-      <c r="Q19" s="9" t="str">
+      <c r="Q19" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!C19="", "", ROUND(('3rd-Summary-Male'!C19+'3rd-Summary-Male'!D19)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="R19" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!D19="", "", ROUND(('3rd-Summary-Male'!D19+'3rd-Summary-Male'!E19)/2, 0))</f>
@@ -17510,19 +17514,19 @@
       </c>
       <c r="T19" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F19="", "", ROUND(('3rd-Summary-Male'!F19+'3rd-Summary-Male'!G19)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="U19" s="9" t="str">
+        <v>74</v>
+      </c>
+      <c r="U19" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G19="", "", ROUND(('3rd-Summary-Male'!G19+'3rd-Summary-Male'!H19)/2, 0))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="V19" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H19="", "", ROUND(('3rd-Summary-Male'!H19+'3rd-Summary-Male'!I19)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="W19" s="9" t="str">
+        <v>74</v>
+      </c>
+      <c r="W19" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I19="", "", ROUND(('3rd-Summary-Male'!I19+'3rd-Summary-Male'!J19)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X19" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C19="", "", ROUND(('4th-Summary-Male'!C19+'4th-Summary-Male'!D19)/2, 0))</f>
@@ -17576,11 +17580,11 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!F20="", "", ROUND(('1st-Summary-Male'!F20+'1st-Summary-Male'!G20)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="G20" s="8" t="str">
+        <v>75</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!G20="", "", ROUND(('1st-Summary-Male'!G20+'1st-Summary-Male'!H20)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="H20" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!H20="", "", ROUND(('1st-Summary-Male'!H20+'1st-Summary-Male'!I20)/2, 0))</f>
@@ -17632,19 +17636,19 @@
       </c>
       <c r="T20" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F20="", "", ROUND(('3rd-Summary-Male'!F20+'3rd-Summary-Male'!G20)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U20" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="U20" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G20="", "", ROUND(('3rd-Summary-Male'!G20+'3rd-Summary-Male'!H20)/2, 0))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="V20" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H20="", "", ROUND(('3rd-Summary-Male'!H20+'3rd-Summary-Male'!I20)/2, 0))</f>
-        <v>41</v>
-      </c>
-      <c r="W20" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="W20" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I20="", "", ROUND(('3rd-Summary-Male'!I20+'3rd-Summary-Male'!J20)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X20" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C20="", "", ROUND(('4th-Summary-Male'!C20+'4th-Summary-Male'!D20)/2, 0))</f>
@@ -17698,11 +17702,11 @@
       </c>
       <c r="F21" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!F21="", "", ROUND(('1st-Summary-Male'!F21+'1st-Summary-Male'!G21)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="G21" s="8" t="str">
+        <v>76</v>
+      </c>
+      <c r="G21" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!G21="", "", ROUND(('1st-Summary-Male'!G21+'1st-Summary-Male'!H21)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="H21" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!H21="", "", ROUND(('1st-Summary-Male'!H21+'1st-Summary-Male'!I21)/2, 0))</f>
@@ -17754,19 +17758,19 @@
       </c>
       <c r="T21" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F21="", "", ROUND(('3rd-Summary-Male'!F21+'3rd-Summary-Male'!G21)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U21" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="U21" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G21="", "", ROUND(('3rd-Summary-Male'!G21+'3rd-Summary-Male'!H21)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="V21" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H21="", "", ROUND(('3rd-Summary-Male'!H21+'3rd-Summary-Male'!I21)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="W21" s="9" t="str">
+        <v>74</v>
+      </c>
+      <c r="W21" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!I21="", "", ROUND(('3rd-Summary-Male'!I21+'3rd-Summary-Male'!J21)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X21" s="9" t="str">
         <f aca="false">IF('4th-Summary-Male'!C21="", "", ROUND(('4th-Summary-Male'!C21+'4th-Summary-Male'!D21)/2, 0))</f>
@@ -17806,9 +17810,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
         <v>BACLAAN, JOVART MATA</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!C22="", "", ROUND(('1st-Summary-Male'!C22+'1st-Summary-Male'!D22)/2, 0))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="D22" s="8" t="n">
         <f aca="false">IF('1st-Summary-Male'!D22="", "", ROUND(('1st-Summary-Male'!D22+'1st-Summary-Male'!E22)/2, 0))</f>
@@ -17876,11 +17880,11 @@
       </c>
       <c r="T22" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!F22="", "", ROUND(('3rd-Summary-Male'!F22+'3rd-Summary-Male'!G22)/2, 0))</f>
-        <v>43</v>
-      </c>
-      <c r="U22" s="9" t="str">
+        <v>85</v>
+      </c>
+      <c r="U22" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!G22="", "", ROUND(('3rd-Summary-Male'!G22+'3rd-Summary-Male'!H22)/2, 0))</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="V22" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Male'!H22="", "", ROUND(('3rd-Summary-Male'!H22+'3rd-Summary-Male'!I22)/2, 0))</f>
@@ -20256,7 +20260,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W18" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE37" activeCellId="1" sqref="M13:N13 AE37"/>
+      <selection pane="topLeft" activeCell="AE37" activeCellId="0" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20295,94 +20299,94 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20652,11 +20656,11 @@
       </c>
       <c r="F4" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!F4="", "", ROUND(('1st-Summary-Female'!F4+'1st-Summary-Female'!G4)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="G4" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!G4="", "", ROUND(('1st-Summary-Female'!G4+'1st-Summary-Female'!H4)/2, 0))</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="H4" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!H4="", "", ROUND(('1st-Summary-Female'!H4+'1st-Summary-Female'!I4)/2, 0))</f>
@@ -21248,9 +21252,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES DIANE FACTOR</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!C9="", "", ROUND(('1st-Summary-Female'!C9+'1st-Summary-Female'!D9)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!D9="", "", ROUND(('1st-Summary-Female'!D9+'1st-Summary-Female'!E9)/2, 0))</f>
@@ -21262,75 +21266,75 @@
       </c>
       <c r="F9" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!F9="", "", ROUND(('1st-Summary-Female'!F9+'1st-Summary-Female'!G9)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="G9" s="9" t="str">
+        <v>75</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!G9="", "", ROUND(('1st-Summary-Female'!G9+'1st-Summary-Female'!H9)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="H9" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!H9="", "", ROUND(('1st-Summary-Female'!H9+'1st-Summary-Female'!I9)/2, 0))</f>
-        <v>36</v>
-      </c>
-      <c r="I9" s="9" t="str">
+        <v>71</v>
+      </c>
+      <c r="I9" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!I9="", "", ROUND(('1st-Summary-Female'!I9+'1st-Summary-Female'!J9)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="J9" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!C9="", "", ROUND(('2nd-Summary-Female'!C9+'2nd-Summary-Female'!D9)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="K9" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="K9" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!D9="", "", ROUND(('2nd-Summary-Female'!D9+'2nd-Summary-Female'!E9)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="L9" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="L9" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!E9="", "", ROUND(('2nd-Summary-Female'!E9+'2nd-Summary-Female'!F9)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="M9" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!F9="", "", ROUND(('2nd-Summary-Female'!F9+'2nd-Summary-Female'!G9)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="N9" s="9" t="str">
+        <v>75</v>
+      </c>
+      <c r="N9" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!G9="", "", ROUND(('2nd-Summary-Female'!G9+'2nd-Summary-Female'!H9)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="O9" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="O9" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!H9="", "", ROUND(('2nd-Summary-Female'!H9+'2nd-Summary-Female'!I9)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="P9" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="P9" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!I9="", "", ROUND(('2nd-Summary-Female'!I9+'2nd-Summary-Female'!J9)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="Q9" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!C9="", "", ROUND(('3rd-Summary-Female'!C9+'3rd-Summary-Female'!D9)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="R9" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="R9" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!D9="", "", ROUND(('3rd-Summary-Female'!D9+'3rd-Summary-Female'!E9)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="S9" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="S9" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!E9="", "", ROUND(('3rd-Summary-Female'!E9+'3rd-Summary-Female'!F9)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="T9" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F9="", "", ROUND(('3rd-Summary-Female'!F9+'3rd-Summary-Female'!G9)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U9" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="U9" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!G9="", "", ROUND(('3rd-Summary-Female'!G9+'3rd-Summary-Female'!H9)/2, 0))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="V9" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!H9="", "", ROUND(('3rd-Summary-Female'!H9+'3rd-Summary-Female'!I9)/2, 0))</f>
-        <v>35</v>
-      </c>
-      <c r="W9" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="W9" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!I9="", "", ROUND(('3rd-Summary-Female'!I9+'3rd-Summary-Female'!J9)/2, 0))</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="X9" s="9" t="str">
         <f aca="false">IF('4th-Summary-Female'!C9="", "", ROUND(('4th-Summary-Female'!C9+'4th-Summary-Female'!D9)/2, 0))</f>
@@ -21370,13 +21374,13 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!C10="", "", ROUND(('1st-Summary-Female'!C10+'1st-Summary-Female'!D10)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="D10" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!D10="", "", ROUND(('1st-Summary-Female'!D10+'1st-Summary-Female'!E10)/2, 0))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="E10" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!E10="", "", ROUND(('1st-Summary-Female'!E10+'1st-Summary-Female'!F10)/2, 0))</f>
@@ -21384,11 +21388,11 @@
       </c>
       <c r="F10" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!F10="", "", ROUND(('1st-Summary-Female'!F10+'1st-Summary-Female'!G10)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="G10" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!G10="", "", ROUND(('1st-Summary-Female'!G10+'1st-Summary-Female'!H10)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="H10" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!H10="", "", ROUND(('1st-Summary-Female'!H10+'1st-Summary-Female'!I10)/2, 0))</f>
@@ -21400,59 +21404,59 @@
       </c>
       <c r="J10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!C10="", "", ROUND(('2nd-Summary-Female'!C10+'2nd-Summary-Female'!D10)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="K10" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="K10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!D10="", "", ROUND(('2nd-Summary-Female'!D10+'2nd-Summary-Female'!E10)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="L10" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="L10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!E10="", "", ROUND(('2nd-Summary-Female'!E10+'2nd-Summary-Female'!F10)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="M10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!F10="", "", ROUND(('2nd-Summary-Female'!F10+'2nd-Summary-Female'!G10)/2, 0))</f>
-        <v>40</v>
-      </c>
-      <c r="N10" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="N10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!G10="", "", ROUND(('2nd-Summary-Female'!G10+'2nd-Summary-Female'!H10)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="O10" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="O10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!H10="", "", ROUND(('2nd-Summary-Female'!H10+'2nd-Summary-Female'!I10)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P10" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!I10="", "", ROUND(('2nd-Summary-Female'!I10+'2nd-Summary-Female'!J10)/2, 0))</f>
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!C10="", "", ROUND(('3rd-Summary-Female'!C10+'3rd-Summary-Female'!D10)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="R10" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="R10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!D10="", "", ROUND(('3rd-Summary-Female'!D10+'3rd-Summary-Female'!E10)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="S10" s="9" t="str">
+        <v>70</v>
+      </c>
+      <c r="S10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!E10="", "", ROUND(('3rd-Summary-Female'!E10+'3rd-Summary-Female'!F10)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="T10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F10="", "", ROUND(('3rd-Summary-Female'!F10+'3rd-Summary-Female'!G10)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U10" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="U10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!G10="", "", ROUND(('3rd-Summary-Female'!G10+'3rd-Summary-Female'!H10)/2, 0))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="V10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!H10="", "", ROUND(('3rd-Summary-Female'!H10+'3rd-Summary-Female'!I10)/2, 0))</f>
-        <v>35</v>
-      </c>
-      <c r="W10" s="9" t="str">
+        <v>73</v>
+      </c>
+      <c r="W10" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!I10="", "", ROUND(('3rd-Summary-Female'!I10+'3rd-Summary-Female'!J10)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="X10" s="9" t="str">
         <f aca="false">IF('4th-Summary-Female'!C10="", "", ROUND(('4th-Summary-Female'!C10+'4th-Summary-Female'!D10)/2, 0))</f>
@@ -21656,11 +21660,11 @@
       </c>
       <c r="M12" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!F12="", "", ROUND(('2nd-Summary-Female'!F12+'2nd-Summary-Female'!G12)/2, 0))</f>
-        <v>44</v>
-      </c>
-      <c r="N12" s="9" t="str">
+        <v>81</v>
+      </c>
+      <c r="N12" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!G12="", "", ROUND(('2nd-Summary-Female'!G12+'2nd-Summary-Female'!H12)/2, 0))</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="O12" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!H12="", "", ROUND(('2nd-Summary-Female'!H12+'2nd-Summary-Female'!I12)/2, 0))</f>
@@ -21736,9 +21740,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
         <v>AMBULO, PRINCESS ANNE BASILIO</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!C13="", "", ROUND(('1st-Summary-Female'!C13+'1st-Summary-Female'!D13)/2, 0))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="D13" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!D13="", "", ROUND(('1st-Summary-Female'!D13+'1st-Summary-Female'!E13)/2, 0))</f>
@@ -21750,11 +21754,11 @@
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!F13="", "", ROUND(('1st-Summary-Female'!F13+'1st-Summary-Female'!G13)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="G13" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!G13="", "", ROUND(('1st-Summary-Female'!G13+'1st-Summary-Female'!H13)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="H13" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!H13="", "", ROUND(('1st-Summary-Female'!H13+'1st-Summary-Female'!I13)/2, 0))</f>
@@ -21778,15 +21782,15 @@
       </c>
       <c r="M13" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!F13="", "", ROUND(('2nd-Summary-Female'!F13+'2nd-Summary-Female'!G13)/2, 0))</f>
-        <v>40</v>
-      </c>
-      <c r="N13" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="N13" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!G13="", "", ROUND(('2nd-Summary-Female'!G13+'2nd-Summary-Female'!H13)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="O13" s="9" t="str">
+        <v>73</v>
+      </c>
+      <c r="O13" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!H13="", "", ROUND(('2nd-Summary-Female'!H13+'2nd-Summary-Female'!I13)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P13" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!I13="", "", ROUND(('2nd-Summary-Female'!I13+'2nd-Summary-Female'!J13)/2, 0))</f>
@@ -21798,19 +21802,19 @@
       </c>
       <c r="R13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!D13="", "", ROUND(('3rd-Summary-Female'!D13+'3rd-Summary-Female'!E13)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="S13" s="9" t="str">
+        <v>74</v>
+      </c>
+      <c r="S13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!E13="", "", ROUND(('3rd-Summary-Female'!E13+'3rd-Summary-Female'!F13)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="T13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F13="", "", ROUND(('3rd-Summary-Female'!F13+'3rd-Summary-Female'!G13)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U13" s="9" t="str">
+        <v>74</v>
+      </c>
+      <c r="U13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!G13="", "", ROUND(('3rd-Summary-Female'!G13+'3rd-Summary-Female'!H13)/2, 0))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="V13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!H13="", "", ROUND(('3rd-Summary-Female'!H13+'3rd-Summary-Female'!I13)/2, 0))</f>
@@ -21818,7 +21822,7 @@
       </c>
       <c r="W13" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!I13="", "", ROUND(('3rd-Summary-Female'!I13+'3rd-Summary-Female'!J13)/2, 0))</f>
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="X13" s="9" t="str">
         <f aca="false">IF('4th-Summary-Female'!C13="", "", ROUND(('4th-Summary-Female'!C13+'4th-Summary-Female'!D13)/2, 0))</f>
@@ -22050,19 +22054,19 @@
       </c>
       <c r="T15" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F15="", "", ROUND(('3rd-Summary-Female'!F15+'3rd-Summary-Female'!G15)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U15" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="U15" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!G15="", "", ROUND(('3rd-Summary-Female'!G15+'3rd-Summary-Female'!H15)/2, 0))</f>
-        <v/>
+        <v>83</v>
       </c>
       <c r="V15" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!H15="", "", ROUND(('3rd-Summary-Female'!H15+'3rd-Summary-Female'!I15)/2, 0))</f>
-        <v>43</v>
-      </c>
-      <c r="W15" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="W15" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!I15="", "", ROUND(('3rd-Summary-Female'!I15+'3rd-Summary-Female'!J15)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="X15" s="9" t="str">
         <f aca="false">IF('4th-Summary-Female'!C15="", "", ROUND(('4th-Summary-Female'!C15+'4th-Summary-Female'!D15)/2, 0))</f>
@@ -22102,9 +22106,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
         <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!C16="", "", ROUND(('1st-Summary-Female'!C16+'1st-Summary-Female'!D16)/2, 0))</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="D16" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!D16="", "", ROUND(('1st-Summary-Female'!D16+'1st-Summary-Female'!E16)/2, 0))</f>
@@ -22172,11 +22176,11 @@
       </c>
       <c r="T16" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F16="", "", ROUND(('3rd-Summary-Female'!F16+'3rd-Summary-Female'!G16)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="U16" s="9" t="str">
+        <v>78</v>
+      </c>
+      <c r="U16" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!G16="", "", ROUND(('3rd-Summary-Female'!G16+'3rd-Summary-Female'!H16)/2, 0))</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="V16" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!H16="", "", ROUND(('3rd-Summary-Female'!H16+'3rd-Summary-Female'!I16)/2, 0))</f>
@@ -22360,11 +22364,11 @@
       </c>
       <c r="F18" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!F18="", "", ROUND(('1st-Summary-Female'!F18+'1st-Summary-Female'!G18)/2, 0))</f>
-        <v>41</v>
-      </c>
-      <c r="G18" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!G18="", "", ROUND(('1st-Summary-Female'!G18+'1st-Summary-Female'!H18)/2, 0))</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="H18" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!H18="", "", ROUND(('1st-Summary-Female'!H18+'1st-Summary-Female'!I18)/2, 0))</f>
@@ -22468,9 +22472,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
         <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!C19="", "", ROUND(('1st-Summary-Female'!C19+'1st-Summary-Female'!D19)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="D19" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!D19="", "", ROUND(('1st-Summary-Female'!D19+'1st-Summary-Female'!E19)/2, 0))</f>
@@ -22620,11 +22624,11 @@
       </c>
       <c r="J20" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!C20="", "", ROUND(('2nd-Summary-Female'!C20+'2nd-Summary-Female'!D20)/2, 0))</f>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K20" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!D20="", "", ROUND(('2nd-Summary-Female'!D20+'2nd-Summary-Female'!E20)/2, 0))</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L20" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!E20="", "", ROUND(('2nd-Summary-Female'!E20+'2nd-Summary-Female'!F20)/2, 0))</f>
@@ -22832,7 +22836,7 @@
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
       <c r="C22" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!C22="", "", ROUND(('1st-Summary-Female'!C22+'1st-Summary-Female'!D22)/2, 0))</f>
@@ -22896,11 +22900,11 @@
       </c>
       <c r="R22" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!D22="", "", ROUND(('3rd-Summary-Female'!D22+'3rd-Summary-Female'!E22)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="S22" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="S22" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!E22="", "", ROUND(('3rd-Summary-Female'!E22+'3rd-Summary-Female'!F22)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="T22" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F22="", "", ROUND(('3rd-Summary-Female'!F22+'3rd-Summary-Female'!G22)/2, 0))</f>
@@ -22986,11 +22990,11 @@
       </c>
       <c r="J23" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!C23="", "", ROUND(('2nd-Summary-Female'!C23+'2nd-Summary-Female'!D23)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="K23" s="9" t="str">
+        <v>75</v>
+      </c>
+      <c r="K23" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!D23="", "", ROUND(('2nd-Summary-Female'!D23+'2nd-Summary-Female'!E23)/2, 0))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L23" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!E23="", "", ROUND(('2nd-Summary-Female'!E23+'2nd-Summary-Female'!F23)/2, 0))</f>
@@ -22998,11 +23002,11 @@
       </c>
       <c r="M23" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!F23="", "", ROUND(('2nd-Summary-Female'!F23+'2nd-Summary-Female'!G23)/2, 0))</f>
-        <v>39</v>
-      </c>
-      <c r="N23" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="N23" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!G23="", "", ROUND(('2nd-Summary-Female'!G23+'2nd-Summary-Female'!H23)/2, 0))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="O23" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!H23="", "", ROUND(('2nd-Summary-Female'!H23+'2nd-Summary-Female'!I23)/2, 0))</f>
@@ -23014,23 +23018,23 @@
       </c>
       <c r="Q23" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!C23="", "", ROUND(('3rd-Summary-Female'!C23+'3rd-Summary-Female'!D23)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="R23" s="9" t="str">
+        <v>75</v>
+      </c>
+      <c r="R23" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!D23="", "", ROUND(('3rd-Summary-Female'!D23+'3rd-Summary-Female'!E23)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="S23" s="9" t="str">
+        <v>74</v>
+      </c>
+      <c r="S23" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!E23="", "", ROUND(('3rd-Summary-Female'!E23+'3rd-Summary-Female'!F23)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="T23" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F23="", "", ROUND(('3rd-Summary-Female'!F23+'3rd-Summary-Female'!G23)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="U23" s="9" t="str">
+        <v>75</v>
+      </c>
+      <c r="U23" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!G23="", "", ROUND(('3rd-Summary-Female'!G23+'3rd-Summary-Female'!H23)/2, 0))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="V23" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!H23="", "", ROUND(('3rd-Summary-Female'!H23+'3rd-Summary-Female'!I23)/2, 0))</f>
@@ -23200,25 +23204,25 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
         <v>SARDIDO, GEMMA LEE SORIANO</v>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!C25="", "", ROUND(('1st-Summary-Female'!C25+'1st-Summary-Female'!D25)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="D25" s="9" t="str">
+        <v>75</v>
+      </c>
+      <c r="D25" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!D25="", "", ROUND(('1st-Summary-Female'!D25+'1st-Summary-Female'!E25)/2, 0))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="E25" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!E25="", "", ROUND(('1st-Summary-Female'!E25+'1st-Summary-Female'!F25)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="F25" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="F25" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!F25="", "", ROUND(('1st-Summary-Female'!F25+'1st-Summary-Female'!G25)/2, 0))</f>
-        <v/>
-      </c>
-      <c r="G25" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="G25" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!G25="", "", ROUND(('1st-Summary-Female'!G25+'1st-Summary-Female'!H25)/2, 0))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="H25" s="9" t="n">
         <f aca="false">IF('1st-Summary-Female'!H25="", "", ROUND(('1st-Summary-Female'!H25+'1st-Summary-Female'!I25)/2, 0))</f>
@@ -23238,11 +23242,11 @@
       </c>
       <c r="L25" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!E25="", "", ROUND(('2nd-Summary-Female'!E25+'2nd-Summary-Female'!F25)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="M25" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="M25" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!F25="", "", ROUND(('2nd-Summary-Female'!F25+'2nd-Summary-Female'!G25)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="N25" s="9" t="n">
         <f aca="false">IF('2nd-Summary-Female'!G25="", "", ROUND(('2nd-Summary-Female'!G25+'2nd-Summary-Female'!H25)/2, 0))</f>
@@ -23262,27 +23266,27 @@
       </c>
       <c r="R25" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!D25="", "", ROUND(('3rd-Summary-Female'!D25+'3rd-Summary-Female'!E25)/2, 0))</f>
-        <v>38</v>
-      </c>
-      <c r="S25" s="9" t="str">
+        <v>73</v>
+      </c>
+      <c r="S25" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!E25="", "", ROUND(('3rd-Summary-Female'!E25+'3rd-Summary-Female'!F25)/2, 0))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="T25" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!F25="", "", ROUND(('3rd-Summary-Female'!F25+'3rd-Summary-Female'!G25)/2, 0))</f>
-        <v>37</v>
-      </c>
-      <c r="U25" s="9" t="str">
+        <v>72</v>
+      </c>
+      <c r="U25" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!G25="", "", ROUND(('3rd-Summary-Female'!G25+'3rd-Summary-Female'!H25)/2, 0))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="V25" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!H25="", "", ROUND(('3rd-Summary-Female'!H25+'3rd-Summary-Female'!I25)/2, 0))</f>
-        <v>42</v>
-      </c>
-      <c r="W25" s="9" t="str">
+        <v>77</v>
+      </c>
+      <c r="W25" s="9" t="n">
         <f aca="false">IF('3rd-Summary-Female'!I25="", "", ROUND(('3rd-Summary-Female'!I25+'3rd-Summary-Female'!J25)/2, 0))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="X25" s="9" t="str">
         <f aca="false">IF('4th-Summary-Female'!C25="", "", ROUND(('4th-Summary-Female'!C25+'4th-Summary-Female'!D25)/2, 0))</f>
@@ -25284,7 +25288,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="M13:N13 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25297,7 +25301,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25308,7 +25312,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25319,7 +25323,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25330,7 +25334,7 @@
         <v>99</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -25356,7 +25360,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="M13:N13 B42"/>
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25372,16 +25376,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -25393,16 +25397,16 @@
         <v>11</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27273,7 +27277,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M13:N13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27289,16 +27293,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -27310,16 +27314,16 @@
         <v>11</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28249,7 +28253,7 @@
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">IF(ISBLANK('Class-Infos'!G71), "", 'Class-Infos'!G71)</f>
@@ -29190,7 +29194,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O16" activeCellId="1" sqref="M13:N13 O16"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29202,46 +29206,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29483,6 +29487,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C15), "", CONCATENATE('Class-Infos'!C15, ", ", 'Class-Infos'!D15, " ", 'Class-Infos'!E15))</f>
         <v>ALEJANDRO, MARK AGBUYA</v>
       </c>
+      <c r="C7" s="8" t="n">
+        <v>73</v>
+      </c>
       <c r="D7" s="8" t="n">
         <v>75</v>
       </c>
@@ -29676,6 +29683,9 @@
       <c r="F11" s="8" t="n">
         <v>76</v>
       </c>
+      <c r="G11" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="H11" s="8" t="n">
         <v>75</v>
       </c>
@@ -29799,6 +29809,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C22), "", CONCATENATE('Class-Infos'!C22, ", ", 'Class-Infos'!D22, " ", 'Class-Infos'!E22))</f>
         <v>ARROYO, AGA CEAZAR CAPALARAN</v>
       </c>
+      <c r="C14" s="8" t="n">
+        <v>73</v>
+      </c>
       <c r="D14" s="8" t="n">
         <v>75</v>
       </c>
@@ -29984,7 +29997,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="8" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E18" s="8" t="n">
         <v>74</v>
@@ -30038,6 +30051,9 @@
       <c r="F19" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G19" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="H19" s="8" t="n">
         <v>70</v>
       </c>
@@ -30081,6 +30097,9 @@
       <c r="F20" s="8" t="n">
         <v>76</v>
       </c>
+      <c r="G20" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="H20" s="8" t="n">
         <v>75</v>
       </c>
@@ -30124,6 +30143,9 @@
       <c r="F21" s="8" t="n">
         <v>77</v>
       </c>
+      <c r="G21" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="H21" s="8" t="n">
         <v>75</v>
       </c>
@@ -30154,6 +30176,9 @@
       <c r="B22" s="7" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C30), "", CONCATENATE('Class-Infos'!C30, ", ", 'Class-Infos'!D30, " ", 'Class-Infos'!E30))</f>
         <v>BACLAAN, JOVART MATA</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>73</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>81</v>
@@ -30645,8 +30670,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L26" activeCellId="1" sqref="M13:N13 L26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30658,46 +30683,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30813,6 +30838,9 @@
       <c r="F4" s="8" t="n">
         <v>78</v>
       </c>
+      <c r="G4" s="8" t="n">
+        <v>80</v>
+      </c>
       <c r="H4" s="8" t="n">
         <v>83</v>
       </c>
@@ -31028,6 +31056,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES DIANE FACTOR</v>
       </c>
+      <c r="C9" s="8" t="n">
+        <v>73</v>
+      </c>
       <c r="D9" s="8" t="n">
         <v>76</v>
       </c>
@@ -31037,8 +31068,14 @@
       <c r="F9" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G9" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="H9" s="8" t="n">
         <v>72</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>70</v>
       </c>
       <c r="J9" s="8" t="n">
         <v>75</v>
@@ -31065,11 +31102,20 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C59), "", CONCATENATE('Class-Infos'!C59, ", ", 'Class-Infos'!D59, " ", 'Class-Infos'!E59))</f>
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
+      <c r="C10" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="E10" s="8" t="n">
         <v>74</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>77</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>75</v>
@@ -31194,6 +31240,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C62), "", CONCATENATE('Class-Infos'!C62, ", ", 'Class-Infos'!D62, " ", 'Class-Infos'!E62))</f>
         <v>AMBULO, PRINCESS ANNE BASILIO</v>
       </c>
+      <c r="C13" s="8" t="n">
+        <v>73</v>
+      </c>
       <c r="D13" s="8" t="n">
         <v>81</v>
       </c>
@@ -31202,6 +31251,9 @@
       </c>
       <c r="F13" s="8" t="n">
         <v>78</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="H13" s="8" t="n">
         <v>75</v>
@@ -31326,6 +31378,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C65), "", CONCATENATE('Class-Infos'!C65, ", ", 'Class-Infos'!D65, " ", 'Class-Infos'!E65))</f>
         <v>ARCANGEL, MIKA ELLA CAMIGLA</v>
       </c>
+      <c r="C16" s="8" t="n">
+        <v>73</v>
+      </c>
       <c r="D16" s="8" t="n">
         <v>79</v>
       </c>
@@ -31427,6 +31482,9 @@
       <c r="F18" s="8" t="n">
         <v>82</v>
       </c>
+      <c r="G18" s="8" t="n">
+        <v>75</v>
+      </c>
       <c r="H18" s="8" t="n">
         <v>76</v>
       </c>
@@ -31458,6 +31516,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C68), "", CONCATENATE('Class-Infos'!C68, ", ", 'Class-Infos'!D68, " ", 'Class-Infos'!E68))</f>
         <v>AVECILLA, JEAN RAIZHEN SALAZAR</v>
       </c>
+      <c r="C19" s="8" t="n">
+        <v>73</v>
+      </c>
       <c r="D19" s="8" t="n">
         <v>77</v>
       </c>
@@ -31591,7 +31652,7 @@
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
       <c r="C22" s="8" t="n">
         <v>75</v>
@@ -31731,7 +31792,19 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C74), "", CONCATENATE('Class-Infos'!C74, ", ", 'Class-Infos'!D74, " ", 'Class-Infos'!E74))</f>
         <v>SARDIDO, GEMMA LEE SORIANO</v>
       </c>
+      <c r="C25" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>76</v>
+      </c>
       <c r="E25" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="G25" s="8" t="n">
         <v>74</v>
       </c>
       <c r="H25" s="8" t="n">
@@ -31934,8 +32007,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="1" sqref="M13:N13 N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31947,46 +32020,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32148,11 +32221,29 @@
       <c r="F5" s="8" t="n">
         <v>78</v>
       </c>
+      <c r="G5" s="8" t="n">
+        <v>75</v>
+      </c>
       <c r="H5" s="8" t="n">
         <v>73</v>
       </c>
       <c r="I5" s="8" t="n">
         <v>76</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32222,10 +32313,28 @@
       <c r="F7" s="8" t="n">
         <v>76</v>
       </c>
+      <c r="G7" s="8" t="n">
+        <v>75</v>
+      </c>
       <c r="H7" s="8" t="n">
         <v>81</v>
       </c>
       <c r="I7" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="N7" s="8" t="n">
         <v>75</v>
       </c>
     </row>
@@ -32250,6 +32359,9 @@
       <c r="F8" s="8" t="n">
         <v>78</v>
       </c>
+      <c r="G8" s="8" t="n">
+        <v>75</v>
+      </c>
       <c r="H8" s="8" t="n">
         <v>86</v>
       </c>
@@ -32339,6 +32451,9 @@
       <c r="F10" s="8" t="n">
         <v>80</v>
       </c>
+      <c r="G10" s="8" t="n">
+        <v>75</v>
+      </c>
       <c r="H10" s="8" t="n">
         <v>86</v>
       </c>
@@ -32382,6 +32497,9 @@
       <c r="F11" s="8" t="n">
         <v>78</v>
       </c>
+      <c r="G11" s="8" t="n">
+        <v>75</v>
+      </c>
       <c r="H11" s="8" t="n">
         <v>87</v>
       </c>
@@ -32613,7 +32731,7 @@
         <v>83</v>
       </c>
       <c r="H16" s="8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="8" t="n">
         <v>78</v>
@@ -32746,6 +32864,12 @@
       </c>
       <c r="F19" s="8" t="n">
         <v>76</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>70</v>
       </c>
       <c r="I19" s="8" t="n">
         <v>76</v>
@@ -33100,8 +33224,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="1" sqref="M13:N13 M15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33113,46 +33237,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33489,8 +33613,38 @@
       <c r="C9" s="8" t="n">
         <v>74</v>
       </c>
+      <c r="D9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="F9" s="8" t="n">
         <v>76</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33505,11 +33659,38 @@
       <c r="C10" s="8" t="n">
         <v>74</v>
       </c>
+      <c r="D10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="F10" s="8" t="n">
         <v>79</v>
       </c>
+      <c r="G10" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="I10" s="8" t="n">
         <v>75</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33579,6 +33760,9 @@
       <c r="F12" s="8" t="n">
         <v>87</v>
       </c>
+      <c r="G12" s="8" t="n">
+        <v>75</v>
+      </c>
       <c r="H12" s="8" t="n">
         <v>88</v>
       </c>
@@ -33622,6 +33806,12 @@
       <c r="F13" s="8" t="n">
         <v>79</v>
       </c>
+      <c r="G13" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="I13" s="8" t="n">
         <v>75</v>
       </c>
@@ -33930,7 +34120,7 @@
         <v>92</v>
       </c>
       <c r="D20" s="8" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="n">
         <v>82</v>
@@ -34016,7 +34206,7 @@
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
       <c r="C22" s="8" t="n">
         <v>75</v>
@@ -34067,11 +34257,17 @@
       <c r="C23" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="D23" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="E23" s="8" t="n">
         <v>74</v>
       </c>
       <c r="F23" s="8" t="n">
         <v>77</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>75</v>
       </c>
       <c r="H23" s="8" t="n">
         <v>82</v>
@@ -34158,6 +34354,9 @@
       </c>
       <c r="E25" s="8" t="n">
         <v>74</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>70</v>
       </c>
       <c r="G25" s="8" t="n">
         <v>75</v>
@@ -34362,8 +34561,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="1" sqref="M13:N13 M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34375,46 +34574,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34570,11 +34769,20 @@
       <c r="D5" s="8" t="n">
         <v>80</v>
       </c>
+      <c r="E5" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="F5" s="8" t="n">
         <v>75</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>76</v>
       </c>
       <c r="H5" s="8" t="n">
         <v>83</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>75</v>
       </c>
       <c r="J5" s="8" t="n">
         <v>75</v>
@@ -34659,8 +34867,14 @@
       <c r="F7" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G7" s="8" t="n">
+        <v>76</v>
+      </c>
       <c r="H7" s="8" t="n">
         <v>84</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>75</v>
       </c>
       <c r="J7" s="8" t="n">
         <v>75</v>
@@ -34699,8 +34913,14 @@
       <c r="F8" s="8" t="n">
         <v>80</v>
       </c>
+      <c r="G8" s="8" t="n">
+        <v>78</v>
+      </c>
       <c r="H8" s="8" t="n">
         <v>84</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>75</v>
       </c>
       <c r="J8" s="8" t="n">
         <v>75</v>
@@ -34785,8 +35005,14 @@
       <c r="F10" s="8" t="n">
         <v>78</v>
       </c>
+      <c r="G10" s="8" t="n">
+        <v>78</v>
+      </c>
       <c r="H10" s="8" t="n">
         <v>90</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>75</v>
       </c>
       <c r="J10" s="8" t="n">
         <v>75</v>
@@ -34825,8 +35051,14 @@
       <c r="F11" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G11" s="8" t="n">
+        <v>76</v>
+      </c>
       <c r="H11" s="8" t="n">
         <v>73</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>75</v>
       </c>
       <c r="J11" s="8" t="n">
         <v>75</v>
@@ -34899,6 +35131,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C21), "", CONCATENATE('Class-Infos'!C21, ", ", 'Class-Infos'!D21, " ", 'Class-Infos'!E21))</f>
         <v>ARESGADO, CHRISTIAN MACKY MANUEL</v>
       </c>
+      <c r="C13" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="D13" s="8" t="n">
         <v>79</v>
       </c>
@@ -34912,6 +35147,9 @@
         <v>80</v>
       </c>
       <c r="H13" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="I13" s="8" t="n">
         <v>75</v>
       </c>
       <c r="J13" s="8" t="n">
@@ -35169,6 +35407,9 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C27), "", CONCATENATE('Class-Infos'!C27, ", ", 'Class-Infos'!D27, " ", 'Class-Infos'!E27))</f>
         <v>AYOP, WESLEY MICHEN BALBUENA</v>
       </c>
+      <c r="C19" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="D19" s="8" t="n">
         <v>76</v>
       </c>
@@ -35178,8 +35419,14 @@
       <c r="F19" s="8" t="n">
         <v>74</v>
       </c>
+      <c r="G19" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="H19" s="8" t="n">
         <v>73</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="J19" s="8" t="n">
         <v>75</v>
@@ -35218,8 +35465,14 @@
       <c r="F20" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G20" s="8" t="n">
+        <v>77</v>
+      </c>
       <c r="H20" s="8" t="n">
         <v>82</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>75</v>
       </c>
       <c r="J20" s="8" t="n">
         <v>75</v>
@@ -35258,8 +35511,14 @@
       <c r="F21" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G21" s="8" t="n">
+        <v>76</v>
+      </c>
       <c r="H21" s="8" t="n">
         <v>73</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="J21" s="8" t="n">
         <v>75</v>
@@ -35296,6 +35555,9 @@
         <v>86</v>
       </c>
       <c r="F22" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="G22" s="8" t="n">
         <v>85</v>
       </c>
       <c r="H22" s="8" t="n">
@@ -35516,8 +35778,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13:N13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35529,46 +35791,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35902,10 +36164,40 @@
         <f aca="false">IF(ISBLANK('Class-Infos'!C58), "", CONCATENATE('Class-Infos'!C58, ", ", 'Class-Infos'!D58, " ", 'Class-Infos'!E58))</f>
         <v>ALBIOLA, PRINCES DIANE FACTOR</v>
       </c>
+      <c r="C9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="F9" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G9" s="8" t="n">
+        <v>77</v>
+      </c>
       <c r="H9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" s="8" t="n">
         <v>70</v>
       </c>
     </row>
@@ -35919,12 +36211,39 @@
         <v>ALCANTARA, MICHAELLA JEN RODELAS</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>70</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G10" s="8" t="n">
+        <v>77</v>
+      </c>
       <c r="H10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" s="8" t="n">
         <v>70</v>
       </c>
     </row>
@@ -36035,14 +36354,35 @@
       <c r="D13" s="8" t="n">
         <v>78</v>
       </c>
+      <c r="E13" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="F13" s="8" t="n">
         <v>75</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>73</v>
       </c>
       <c r="H13" s="8" t="n">
         <v>70</v>
       </c>
       <c r="I13" s="8" t="n">
         <v>75</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36112,8 +36452,14 @@
       <c r="F15" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="G15" s="8" t="n">
+        <v>79</v>
+      </c>
       <c r="H15" s="8" t="n">
         <v>86</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="J15" s="8" t="n">
         <v>75</v>
@@ -36152,6 +36498,9 @@
       <c r="F16" s="8" t="n">
         <v>77</v>
       </c>
+      <c r="G16" s="8" t="n">
+        <v>78</v>
+      </c>
       <c r="H16" s="8" t="n">
         <v>83</v>
       </c>
@@ -36411,13 +36760,16 @@
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">IF(ISBLANK('Class-Infos'!C71), "", CONCATENATE('Class-Infos'!C71, ", ", 'Class-Infos'!D71, " ", 'Class-Infos'!E71))</f>
-        <v>AZUCENAS, JURIELYN VILLAGANAS</v>
+        <v>AZUCENAS, JURIELYN </v>
       </c>
       <c r="C22" s="8" t="n">
         <v>76</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>77</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>75</v>
@@ -36459,7 +36811,16 @@
       <c r="C23" s="8" t="n">
         <v>75</v>
       </c>
+      <c r="D23" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>74</v>
+      </c>
       <c r="F23" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G23" s="8" t="n">
         <v>75</v>
       </c>
       <c r="H23" s="8" t="n">
@@ -36545,11 +36906,20 @@
       <c r="D25" s="8" t="n">
         <v>76</v>
       </c>
+      <c r="E25" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="F25" s="8" t="n">
         <v>74</v>
       </c>
+      <c r="G25" s="8" t="n">
+        <v>70</v>
+      </c>
       <c r="H25" s="8" t="n">
         <v>84</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>70</v>
       </c>
       <c r="J25" s="8" t="n">
         <v>75</v>
